--- a/fechamento_2021/fechamento_agosto/GeralAgosto2.xlsx
+++ b/fechamento_2021/fechamento_agosto/GeralAgosto2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD0F17A-5557-4287-8189-B292194F78D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B91746-126A-45C7-81C0-408F49C5B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{230B3CAE-44F6-4AEC-A3C4-1DF27A78ECBF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="326">
   <si>
     <t>Coletado</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Dor de Garganta, Dor de Cabeca, Coriza</t>
   </si>
   <si>
-    <t>Coriza</t>
-  </si>
-  <si>
     <t>Coriza, Dor de Cabeca</t>
   </si>
   <si>
@@ -178,21 +175,6 @@
   </si>
   <si>
     <t>CONF. LABOR.</t>
-  </si>
-  <si>
-    <t>CINDIA FREIRE BERGAMASCHI</t>
-  </si>
-  <si>
-    <t>CINTIA DAS GRACAS REIS AMARO</t>
-  </si>
-  <si>
-    <t>CLARICE FERREIRA RAMOS MOTA</t>
-  </si>
-  <si>
-    <t>CLAUDEIR MARINHO</t>
-  </si>
-  <si>
-    <t>CLAUDENICE KATIA DA SILVA</t>
   </si>
   <si>
     <t>CLAUDIA APARECIDA BARROS COELHO</t>
@@ -1390,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CF4FB7-6016-4322-AB07-1EA1655FD488}">
-  <dimension ref="A1:BI162"/>
+  <dimension ref="A1:BI157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD140"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,210 +1422,210 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
         <v>271</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>273</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>274</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>275</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>276</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>278</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>281</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>290</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>296</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>299</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AK1" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AM1" t="s">
         <v>303</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AN1" t="s">
         <v>304</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AP1" t="s">
         <v>306</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>307</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AR1" t="s">
         <v>308</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>310</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>312</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>313</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AX1" t="s">
         <v>314</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>316</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BB1" t="s">
         <v>318</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BC1" t="s">
         <v>319</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
         <v>320</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BE1" t="s">
         <v>321</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>322</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BG1" t="s">
         <v>323</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>324</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BI1" t="s">
         <v>325</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352196800455</v>
+        <v>352198131470</v>
       </c>
       <c r="B2" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>29719</v>
+        <v>24298</v>
       </c>
       <c r="E2" s="2">
-        <v>44415</v>
+        <v>44420</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -1662,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="AN2" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AS2" s="3"/>
@@ -1677,25 +1659,25 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352196840965</v>
+        <v>352198646569</v>
       </c>
       <c r="B3" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35159</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44429</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2">
-        <v>28581</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44416</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -1714,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="AN3" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AS3" s="3"/>
@@ -1729,25 +1711,25 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352198176675</v>
+        <v>352197811714</v>
       </c>
       <c r="B4" s="2">
-        <v>44430</v>
+        <v>44426</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2">
-        <v>35646</v>
+        <v>26861</v>
       </c>
       <c r="E4" s="2">
-        <v>44425</v>
+        <v>44423</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2">
-        <v>44430</v>
+        <v>44426</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
@@ -1766,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="AN4" s="2">
-        <v>44430</v>
+        <v>44426</v>
       </c>
       <c r="AO4" s="4"/>
       <c r="AS4" s="3"/>
@@ -1781,25 +1763,25 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352198410667</v>
+        <v>352197624484</v>
       </c>
       <c r="B5" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>24951</v>
+        <v>28437</v>
       </c>
       <c r="E5" s="2">
+        <v>44422</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2">
         <v>44425</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44431</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
@@ -1818,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="AN5" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AS5" s="3"/>
@@ -1833,25 +1815,25 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352198178759</v>
+        <v>352196486215</v>
       </c>
       <c r="B6" s="2">
-        <v>44430</v>
+        <v>44416</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
-        <v>28466</v>
+        <v>26017</v>
       </c>
       <c r="E6" s="2">
-        <v>44395</v>
+        <v>44413</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2">
-        <v>44430</v>
+        <v>44416</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
@@ -1870,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="AN6" s="2">
-        <v>44430</v>
+        <v>44416</v>
       </c>
       <c r="AO6" s="4"/>
       <c r="AS6" s="3"/>
@@ -1885,25 +1867,25 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352198131470</v>
+        <v>352196936007</v>
       </c>
       <c r="B7" s="2">
-        <v>44429</v>
+        <v>44419</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
-        <v>24298</v>
+        <v>22652</v>
       </c>
       <c r="E7" s="2">
-        <v>44420</v>
+        <v>44416</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J7" s="2">
-        <v>44429</v>
+        <v>44419</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -1922,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="2">
-        <v>44429</v>
+        <v>44419</v>
       </c>
       <c r="AO7" s="4"/>
       <c r="AS7" s="3"/>
@@ -1937,25 +1919,25 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352198646569</v>
+        <v>352197716015</v>
       </c>
       <c r="B8" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2">
-        <v>35159</v>
+        <v>24630</v>
       </c>
       <c r="E8" s="2">
-        <v>44429</v>
+        <v>44425</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -1974,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="AN8" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="AO8" s="4"/>
       <c r="AS8" s="3"/>
@@ -1989,25 +1971,25 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352197811714</v>
+        <v>352195781772</v>
       </c>
       <c r="B9" s="2">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
-        <v>26861</v>
+        <v>28474</v>
       </c>
       <c r="E9" s="2">
-        <v>44423</v>
+        <v>44407</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
@@ -2026,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="AN9" s="2">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="AO9" s="4"/>
       <c r="AS9" s="3"/>
@@ -2041,25 +2023,25 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352197624484</v>
+        <v>352198936966</v>
       </c>
       <c r="B10" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2">
-        <v>28437</v>
+        <v>32329</v>
       </c>
       <c r="E10" s="2">
-        <v>44422</v>
+        <v>44433</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -2078,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="AN10" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="AO10" s="4"/>
       <c r="AS10" s="3"/>
@@ -2093,25 +2075,25 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352196486215</v>
+        <v>352195882107</v>
       </c>
       <c r="B11" s="2">
-        <v>44416</v>
+        <v>44411</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
-        <v>26017</v>
+        <v>29190</v>
       </c>
       <c r="E11" s="2">
-        <v>44413</v>
+        <v>44409</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2">
-        <v>44416</v>
+        <v>44411</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
@@ -2130,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="AN11" s="2">
-        <v>44416</v>
+        <v>44411</v>
       </c>
       <c r="AO11" s="4"/>
       <c r="AS11" s="3"/>
@@ -2145,28 +2127,22 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>352196936007</v>
+        <v>352198593725</v>
       </c>
       <c r="B12" s="2">
-        <v>44419</v>
+        <v>44433</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
-        <v>22652</v>
+        <v>26594</v>
       </c>
       <c r="E12" s="2">
-        <v>44416</v>
+        <v>44428</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="2">
-        <v>44419</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
@@ -2175,17 +2151,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="3"/>
       <c r="AG12" s="4"/>
-      <c r="AL12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>44419</v>
-      </c>
-      <c r="AO12" s="4"/>
-      <c r="AS12" s="3"/>
+      <c r="AL12" s="3"/>
       <c r="AU12" s="4"/>
       <c r="AY12" s="3"/>
       <c r="BH12" t="s">
@@ -2197,25 +2163,25 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>352197716015</v>
+        <v>352199133050</v>
       </c>
       <c r="B13" s="2">
-        <v>44426</v>
+        <v>44438</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>24630</v>
+        <v>31085</v>
       </c>
       <c r="E13" s="2">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2">
-        <v>44426</v>
+        <v>44438</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -2234,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="AN13" s="2">
-        <v>44426</v>
+        <v>44438</v>
       </c>
       <c r="AO13" s="4"/>
       <c r="AS13" s="3"/>
@@ -2249,25 +2215,25 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>352195781772</v>
+        <v>352197291090</v>
       </c>
       <c r="B14" s="2">
-        <v>44410</v>
+        <v>44422</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2">
-        <v>28474</v>
+        <v>23071</v>
       </c>
       <c r="E14" s="2">
-        <v>44407</v>
+        <v>44419</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2">
-        <v>44410</v>
+        <v>44422</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -2286,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="AN14" s="2">
-        <v>44410</v>
+        <v>44422</v>
       </c>
       <c r="AO14" s="4"/>
       <c r="AS14" s="3"/>
@@ -2301,25 +2267,25 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>352198936966</v>
+        <v>352198501173</v>
       </c>
       <c r="B15" s="2">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2">
-        <v>32329</v>
+        <v>25266</v>
       </c>
       <c r="E15" s="2">
-        <v>44433</v>
+        <v>44431</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
@@ -2338,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="AN15" s="2">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AS15" s="3"/>
@@ -2353,25 +2319,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>352195882107</v>
+        <v>352197812723</v>
       </c>
       <c r="B16" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2">
-        <v>29190</v>
+        <v>32485</v>
       </c>
       <c r="E16" s="2">
-        <v>44409</v>
+        <v>44423</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="L16" t="s">
         <v>0</v>
@@ -2390,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="AN16" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="AO16" s="4"/>
       <c r="AS16" s="3"/>
@@ -2405,22 +2371,28 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>352198593725</v>
+        <v>352196719463</v>
       </c>
       <c r="B17" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2">
-        <v>26594</v>
+        <v>30019</v>
       </c>
       <c r="E17" s="2">
-        <v>44428</v>
+        <v>44415</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
       </c>
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
@@ -2429,7 +2401,17 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="3"/>
       <c r="AG17" s="4"/>
-      <c r="AL17" s="3"/>
+      <c r="AL17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO17" s="4"/>
+      <c r="AS17" s="3"/>
       <c r="AU17" s="4"/>
       <c r="AY17" s="3"/>
       <c r="BH17" t="s">
@@ -2441,25 +2423,25 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>352199133050</v>
+        <v>352198998976</v>
       </c>
       <c r="B18" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2">
-        <v>31085</v>
+        <v>28600</v>
       </c>
       <c r="E18" s="2">
         <v>44434</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="L18" t="s">
         <v>0</v>
@@ -2478,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="AN18" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AS18" s="3"/>
@@ -2493,25 +2475,25 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>352197291090</v>
+        <v>352198966170</v>
       </c>
       <c r="B19" s="2">
-        <v>44422</v>
+        <v>44436</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2">
-        <v>23071</v>
+        <v>34583</v>
       </c>
       <c r="E19" s="2">
-        <v>44419</v>
+        <v>44433</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2">
-        <v>44422</v>
+        <v>44436</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
@@ -2530,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="AN19" s="2">
-        <v>44422</v>
+        <v>44436</v>
       </c>
       <c r="AO19" s="4"/>
       <c r="AS19" s="3"/>
@@ -2545,25 +2527,25 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>352198501173</v>
+        <v>352199011700</v>
       </c>
       <c r="B20" s="2">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2">
-        <v>25266</v>
+        <v>34453</v>
       </c>
       <c r="E20" s="2">
         <v>44431</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="L20" t="s">
         <v>0</v>
@@ -2582,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AS20" s="3"/>
@@ -2597,25 +2579,25 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>352197812723</v>
+        <v>352198154240</v>
       </c>
       <c r="B21" s="2">
+        <v>44429</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2">
+        <v>33169</v>
+      </c>
+      <c r="E21" s="2">
         <v>44426</v>
       </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32485</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44423</v>
-      </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="L21" t="s">
         <v>0</v>
@@ -2634,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="AN21" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AS21" s="3"/>
@@ -2649,25 +2631,25 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>352196719463</v>
+        <v>352198940493</v>
       </c>
       <c r="B22" s="2">
-        <v>44417</v>
+        <v>44436</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="2">
-        <v>30019</v>
+        <v>28827</v>
       </c>
       <c r="E22" s="2">
-        <v>44415</v>
+        <v>44433</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2">
-        <v>44417</v>
+        <v>44436</v>
       </c>
       <c r="L22" t="s">
         <v>0</v>
@@ -2686,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="AN22" s="2">
-        <v>44417</v>
+        <v>44436</v>
       </c>
       <c r="AO22" s="4"/>
       <c r="AS22" s="3"/>
@@ -2701,25 +2683,25 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>352198998976</v>
+        <v>352195912725</v>
       </c>
       <c r="B23" s="2">
-        <v>44437</v>
+        <v>44410</v>
       </c>
       <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32558</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2">
-        <v>28600</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44434</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
       <c r="J23" s="2">
-        <v>44437</v>
+        <v>44410</v>
       </c>
       <c r="L23" t="s">
         <v>0</v>
@@ -2738,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="2">
-        <v>44437</v>
+        <v>44410</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AS23" s="3"/>
@@ -2753,25 +2735,25 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>352198966170</v>
+        <v>352198194163</v>
       </c>
       <c r="B24" s="2">
-        <v>44436</v>
+        <v>44430</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="2">
-        <v>34583</v>
+        <v>28960</v>
       </c>
       <c r="E24" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="2">
-        <v>44436</v>
+        <v>44430</v>
       </c>
       <c r="L24" t="s">
         <v>0</v>
@@ -2790,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="AN24" s="2">
-        <v>44436</v>
+        <v>44430</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AS24" s="3"/>
@@ -2805,25 +2787,25 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>352199011700</v>
+        <v>352198344365</v>
       </c>
       <c r="B25" s="2">
-        <v>44438</v>
+        <v>44431</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="2">
-        <v>34453</v>
+        <v>20690</v>
       </c>
       <c r="E25" s="2">
+        <v>44427</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2">
         <v>44431</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="2">
-        <v>44438</v>
       </c>
       <c r="L25" t="s">
         <v>0</v>
@@ -2842,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="AN25" s="2">
-        <v>44438</v>
+        <v>44431</v>
       </c>
       <c r="AO25" s="4"/>
       <c r="AS25" s="3"/>
@@ -2857,25 +2839,25 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>352198154240</v>
+        <v>352198912404</v>
       </c>
       <c r="B26" s="2">
-        <v>44429</v>
+        <v>44435</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2">
-        <v>33169</v>
+        <v>35167</v>
       </c>
       <c r="E26" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J26" s="2">
-        <v>44429</v>
+        <v>44435</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
@@ -2894,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="AN26" s="2">
-        <v>44429</v>
+        <v>44435</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AS26" s="3"/>
@@ -2909,25 +2891,25 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>352198940493</v>
+        <v>352196351316</v>
       </c>
       <c r="B27" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2">
-        <v>28827</v>
+        <v>26457</v>
       </c>
       <c r="E27" s="2">
-        <v>44433</v>
+        <v>44408</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="L27" t="s">
         <v>0</v>
@@ -2946,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="AN27" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="AO27" s="4"/>
       <c r="AS27" s="3"/>
@@ -2961,25 +2943,25 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>352195912725</v>
+        <v>352198867912</v>
       </c>
       <c r="B28" s="2">
-        <v>44410</v>
+        <v>44435</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2">
-        <v>32558</v>
+        <v>13958</v>
       </c>
       <c r="E28" s="2">
-        <v>44407</v>
+        <v>44434</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" s="2">
-        <v>44410</v>
+        <v>44435</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
@@ -2998,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="AN28" s="2">
-        <v>44410</v>
+        <v>44435</v>
       </c>
       <c r="AO28" s="4"/>
       <c r="AS28" s="3"/>
@@ -3013,25 +2995,25 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>352198194163</v>
+        <v>352196747702</v>
       </c>
       <c r="B29" s="2">
-        <v>44430</v>
+        <v>44418</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2">
-        <v>28960</v>
+        <v>38756</v>
       </c>
       <c r="E29" s="2">
-        <v>44426</v>
+        <v>44415</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2">
-        <v>44430</v>
+        <v>44418</v>
       </c>
       <c r="L29" t="s">
         <v>0</v>
@@ -3050,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="AN29" s="2">
-        <v>44430</v>
+        <v>44418</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AS29" s="3"/>
@@ -3065,25 +3047,25 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>352198344365</v>
+        <v>352198503876</v>
       </c>
       <c r="B30" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2">
-        <v>20690</v>
+        <v>20286</v>
       </c>
       <c r="E30" s="2">
-        <v>44427</v>
+        <v>44424</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J30" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="L30" t="s">
         <v>0</v>
@@ -3102,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="AN30" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="AO30" s="4"/>
       <c r="AS30" s="3"/>
@@ -3117,25 +3099,25 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>352198912404</v>
+        <v>352197763455</v>
       </c>
       <c r="B31" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2">
-        <v>35167</v>
+        <v>27245</v>
       </c>
       <c r="E31" s="2">
-        <v>44433</v>
+        <v>44423</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J31" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="L31" t="s">
         <v>0</v>
@@ -3154,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AN31" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="AO31" s="4"/>
       <c r="AS31" s="3"/>
@@ -3169,25 +3151,25 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>352196351316</v>
+        <v>352196935171</v>
       </c>
       <c r="B32" s="2">
-        <v>44413</v>
+        <v>44419</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2">
-        <v>26457</v>
+        <v>34160</v>
       </c>
       <c r="E32" s="2">
-        <v>44408</v>
+        <v>44418</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="J32" s="2">
-        <v>44413</v>
+        <v>44419</v>
       </c>
       <c r="L32" t="s">
         <v>0</v>
@@ -3206,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="AN32" s="2">
-        <v>44413</v>
+        <v>44419</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AS32" s="3"/>
@@ -3221,25 +3203,25 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>352198867912</v>
+        <v>352195915583</v>
       </c>
       <c r="B33" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2">
-        <v>13958</v>
+        <v>28858</v>
       </c>
       <c r="E33" s="2">
-        <v>44434</v>
+        <v>44407</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
@@ -3258,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="AN33" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="AO33" s="4"/>
       <c r="AS33" s="3"/>
@@ -3273,25 +3255,25 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>352196747702</v>
+        <v>352198815321</v>
       </c>
       <c r="B34" s="2">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2">
-        <v>38756</v>
+        <v>22558</v>
       </c>
       <c r="E34" s="2">
-        <v>44415</v>
+        <v>44434</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J34" s="2">
-        <v>44418</v>
+        <v>44434</v>
       </c>
       <c r="L34" t="s">
         <v>0</v>
@@ -3310,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="AN34" s="2">
-        <v>44418</v>
+        <v>44434</v>
       </c>
       <c r="AO34" s="4"/>
       <c r="AS34" s="3"/>
@@ -3325,25 +3307,25 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>352198503876</v>
+        <v>352195782482</v>
       </c>
       <c r="B35" s="2">
-        <v>44432</v>
+        <v>44410</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2">
-        <v>20286</v>
+        <v>33105</v>
       </c>
       <c r="E35" s="2">
-        <v>44424</v>
+        <v>44409</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2">
-        <v>44432</v>
+        <v>44410</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
@@ -3362,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="AN35" s="2">
-        <v>44432</v>
+        <v>44410</v>
       </c>
       <c r="AO35" s="4"/>
       <c r="AS35" s="3"/>
@@ -3377,25 +3359,25 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>352197763455</v>
+        <v>352197345085</v>
       </c>
       <c r="B36" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="2">
-        <v>27245</v>
+        <v>19120</v>
       </c>
       <c r="E36" s="2">
+        <v>44418</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="2">
         <v>44423</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="2">
-        <v>44426</v>
       </c>
       <c r="L36" t="s">
         <v>0</v>
@@ -3414,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="AN36" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="AO36" s="4"/>
       <c r="AS36" s="3"/>
@@ -3429,25 +3411,25 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>352196935171</v>
+        <v>352198163713</v>
       </c>
       <c r="B37" s="2">
-        <v>44419</v>
+        <v>44429</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2">
-        <v>34160</v>
+        <v>22747</v>
       </c>
       <c r="E37" s="2">
-        <v>44418</v>
+        <v>44423</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="J37" s="2">
-        <v>44419</v>
+        <v>44429</v>
       </c>
       <c r="L37" t="s">
         <v>0</v>
@@ -3466,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="AN37" s="2">
-        <v>44419</v>
+        <v>44429</v>
       </c>
       <c r="AO37" s="4"/>
       <c r="AS37" s="3"/>
@@ -3481,25 +3463,25 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>352195915583</v>
+        <v>352198503032</v>
       </c>
       <c r="B38" s="2">
-        <v>44411</v>
+        <v>44432</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2">
-        <v>28858</v>
+        <v>18026</v>
       </c>
       <c r="E38" s="2">
-        <v>44407</v>
+        <v>44424</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J38" s="2">
-        <v>44411</v>
+        <v>44432</v>
       </c>
       <c r="L38" t="s">
         <v>0</v>
@@ -3518,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="AN38" s="2">
-        <v>44411</v>
+        <v>44432</v>
       </c>
       <c r="AO38" s="4"/>
       <c r="AS38" s="3"/>
@@ -3533,25 +3515,25 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>352198815321</v>
+        <v>352197300906</v>
       </c>
       <c r="B39" s="2">
-        <v>44435</v>
+        <v>44422</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2">
-        <v>22558</v>
+        <v>43827</v>
       </c>
       <c r="E39" s="2">
-        <v>44434</v>
+        <v>44417</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J39" s="2">
-        <v>44434</v>
+        <v>44422</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
@@ -3570,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="AN39" s="2">
-        <v>44434</v>
+        <v>44422</v>
       </c>
       <c r="AO39" s="4"/>
       <c r="AS39" s="3"/>
@@ -3585,25 +3567,25 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>352195782482</v>
+        <v>352196547803</v>
       </c>
       <c r="B40" s="2">
-        <v>44410</v>
+        <v>44414</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2">
-        <v>33105</v>
+        <v>17871</v>
       </c>
       <c r="E40" s="2">
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J40" s="2">
-        <v>44410</v>
+        <v>44414</v>
       </c>
       <c r="L40" t="s">
         <v>0</v>
@@ -3622,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="AN40" s="2">
-        <v>44410</v>
+        <v>44414</v>
       </c>
       <c r="AO40" s="4"/>
       <c r="AS40" s="3"/>
@@ -3637,25 +3619,25 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>352197345085</v>
+        <v>352197977384</v>
       </c>
       <c r="B41" s="2">
-        <v>44423</v>
+        <v>44428</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2">
-        <v>19120</v>
+        <v>11772</v>
       </c>
       <c r="E41" s="2">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="J41" s="2">
-        <v>44423</v>
+        <v>44428</v>
       </c>
       <c r="L41" t="s">
         <v>0</v>
@@ -3674,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="AN41" s="2">
-        <v>44423</v>
+        <v>44428</v>
       </c>
       <c r="AO41" s="4"/>
       <c r="AS41" s="3"/>
@@ -3689,28 +3671,22 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>352198163713</v>
+        <v>352199000206</v>
       </c>
       <c r="B42" s="2">
-        <v>44429</v>
+        <v>44437</v>
       </c>
       <c r="C42" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="2">
-        <v>22747</v>
+        <v>17085</v>
       </c>
       <c r="E42" s="2">
-        <v>44423</v>
+        <v>44425</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="2">
-        <v>44429</v>
-      </c>
-      <c r="L42" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M42" s="3"/>
       <c r="O42" s="4"/>
@@ -3719,16 +3695,27 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="3"/>
       <c r="AG42" s="4"/>
+      <c r="AH42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>44425</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>5</v>
+      </c>
       <c r="AL42" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM42" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN42" s="2">
-        <v>44429</v>
-      </c>
-      <c r="AO42" s="4"/>
+        <v>44425</v>
+      </c>
+      <c r="AO42" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS42" s="3"/>
       <c r="AU42" s="4"/>
       <c r="AY42" s="3"/>
@@ -3741,25 +3728,25 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>352198503032</v>
+        <v>352197757901</v>
       </c>
       <c r="B43" s="2">
-        <v>44432</v>
+        <v>44426</v>
       </c>
       <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="2">
+        <v>24248</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44421</v>
+      </c>
+      <c r="F43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="2">
-        <v>18026</v>
-      </c>
-      <c r="E43" s="2">
-        <v>44424</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
       <c r="J43" s="2">
-        <v>44432</v>
+        <v>44426</v>
       </c>
       <c r="L43" t="s">
         <v>0</v>
@@ -3778,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="AN43" s="2">
-        <v>44432</v>
+        <v>44426</v>
       </c>
       <c r="AO43" s="4"/>
       <c r="AS43" s="3"/>
@@ -3793,32 +3780,40 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>352197300906</v>
+        <v>352197238981</v>
       </c>
       <c r="B44" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="C44" t="s">
         <v>111</v>
       </c>
       <c r="D44" s="2">
-        <v>43827</v>
+        <v>34420</v>
       </c>
       <c r="E44" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="2">
-        <v>44422</v>
-      </c>
-      <c r="L44" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M44" s="3"/>
       <c r="O44" s="4"/>
-      <c r="V44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>44421</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>44421</v>
+      </c>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="3"/>
@@ -3827,13 +3822,21 @@
         <v>0</v>
       </c>
       <c r="AM44" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AN44" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="AO44" s="4"/>
-      <c r="AS44" s="3"/>
+      <c r="AR44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>44421</v>
+      </c>
       <c r="AU44" s="4"/>
       <c r="AY44" s="3"/>
       <c r="BH44" t="s">
@@ -3845,25 +3848,25 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>352196547803</v>
+        <v>352198937201</v>
       </c>
       <c r="B45" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="C45" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="2">
-        <v>17871</v>
+        <v>28616</v>
       </c>
       <c r="E45" s="2">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J45" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="L45" t="s">
         <v>0</v>
@@ -3882,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="AN45" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="AO45" s="4"/>
       <c r="AS45" s="3"/>
@@ -3897,28 +3900,22 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>352197977384</v>
+        <v>352199048855</v>
       </c>
       <c r="B46" s="2">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="C46" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="2">
-        <v>11772</v>
+        <v>29706</v>
       </c>
       <c r="E46" s="2">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="J46" s="2">
-        <v>44428</v>
-      </c>
-      <c r="L46" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="4"/>
@@ -3927,17 +3924,7 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="3"/>
       <c r="AG46" s="4"/>
-      <c r="AL46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN46" s="2">
-        <v>44428</v>
-      </c>
-      <c r="AO46" s="4"/>
-      <c r="AS46" s="3"/>
+      <c r="AL46" s="3"/>
       <c r="AU46" s="4"/>
       <c r="AY46" s="3"/>
       <c r="BH46" t="s">
@@ -3949,22 +3936,28 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>352199000206</v>
+        <v>352196213933</v>
       </c>
       <c r="B47" s="2">
-        <v>44437</v>
+        <v>44413</v>
       </c>
       <c r="C47" t="s">
         <v>114</v>
       </c>
       <c r="D47" s="2">
-        <v>17085</v>
+        <v>28546</v>
       </c>
       <c r="E47" s="2">
-        <v>44425</v>
+        <v>44411</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>0</v>
       </c>
       <c r="M47" s="3"/>
       <c r="O47" s="4"/>
@@ -3973,27 +3966,16 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="3"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI47" s="2">
-        <v>44425</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>5</v>
-      </c>
       <c r="AL47" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="2">
-        <v>44425</v>
-      </c>
-      <c r="AO47" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44413</v>
+      </c>
+      <c r="AO47" s="4"/>
       <c r="AS47" s="3"/>
       <c r="AU47" s="4"/>
       <c r="AY47" s="3"/>
@@ -4006,25 +3988,25 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>352197757901</v>
+        <v>352197355568</v>
       </c>
       <c r="B48" s="2">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="C48" t="s">
         <v>115</v>
       </c>
       <c r="D48" s="2">
-        <v>24248</v>
+        <v>31393</v>
       </c>
       <c r="E48" s="2">
-        <v>44421</v>
+        <v>44418</v>
       </c>
       <c r="F48" t="s">
         <v>116</v>
       </c>
       <c r="J48" s="2">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="L48" t="s">
         <v>0</v>
@@ -4043,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="AN48" s="2">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="AO48" s="4"/>
       <c r="AS48" s="3"/>
@@ -4058,40 +4040,32 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>352197238981</v>
+        <v>352196439546</v>
       </c>
       <c r="B49" s="2">
-        <v>44421</v>
+        <v>44415</v>
       </c>
       <c r="C49" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="2">
-        <v>34420</v>
+        <v>29985</v>
       </c>
       <c r="E49" s="2">
+        <v>44412</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J49" s="2">
         <v>44415</v>
       </c>
-      <c r="F49" t="s">
-        <v>41</v>
+      <c r="L49" t="s">
+        <v>0</v>
       </c>
       <c r="M49" s="3"/>
       <c r="O49" s="4"/>
-      <c r="S49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>44421</v>
-      </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
-        <v>44421</v>
-      </c>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="3"/>
+      <c r="V49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="3"/>
@@ -4100,21 +4074,13 @@
         <v>0</v>
       </c>
       <c r="AM49" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="2">
-        <v>44421</v>
+        <v>44415</v>
       </c>
       <c r="AO49" s="4"/>
-      <c r="AR49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT49" s="2">
-        <v>44421</v>
-      </c>
+      <c r="AS49" s="3"/>
       <c r="AU49" s="4"/>
       <c r="AY49" s="3"/>
       <c r="BH49" t="s">
@@ -4126,25 +4092,25 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>352198937201</v>
+        <v>352198582646</v>
       </c>
       <c r="B50" s="2">
-        <v>44436</v>
+        <v>44433</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2">
-        <v>28616</v>
+        <v>31837</v>
       </c>
       <c r="E50" s="2">
+        <v>44431</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="2">
         <v>44433</v>
-      </c>
-      <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="2">
-        <v>44436</v>
       </c>
       <c r="L50" t="s">
         <v>0</v>
@@ -4163,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="AN50" s="2">
-        <v>44436</v>
+        <v>44433</v>
       </c>
       <c r="AO50" s="4"/>
       <c r="AS50" s="3"/>
@@ -4178,22 +4144,28 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>352199048855</v>
+        <v>352197488413</v>
       </c>
       <c r="B51" s="2">
-        <v>44438</v>
+        <v>44424</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2">
-        <v>29706</v>
+        <v>30258</v>
       </c>
       <c r="E51" s="2">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="J51" s="2">
+        <v>44424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>0</v>
       </c>
       <c r="M51" s="3"/>
       <c r="O51" s="4"/>
@@ -4202,7 +4174,17 @@
       <c r="AD51" s="4"/>
       <c r="AE51" s="3"/>
       <c r="AG51" s="4"/>
-      <c r="AL51" s="3"/>
+      <c r="AL51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>44424</v>
+      </c>
+      <c r="AO51" s="4"/>
+      <c r="AS51" s="3"/>
       <c r="AU51" s="4"/>
       <c r="AY51" s="3"/>
       <c r="BH51" t="s">
@@ -4214,25 +4196,25 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>352196213933</v>
+        <v>352196354074</v>
       </c>
       <c r="B52" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2">
-        <v>28546</v>
+        <v>25458</v>
       </c>
       <c r="E52" s="2">
-        <v>44411</v>
+        <v>44351</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="J52" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L52" t="s">
         <v>0</v>
@@ -4251,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="AN52" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="AO52" s="4"/>
       <c r="AS52" s="3"/>
@@ -4266,25 +4248,25 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>352197355568</v>
+        <v>352199140459</v>
       </c>
       <c r="B53" s="2">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2">
-        <v>31393</v>
+        <v>35059</v>
       </c>
       <c r="E53" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="J53" s="2">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="L53" t="s">
         <v>0</v>
@@ -4303,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="AN53" s="2">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="AO53" s="4"/>
       <c r="AS53" s="3"/>
@@ -4318,25 +4300,25 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>352196439546</v>
+        <v>352198886150</v>
       </c>
       <c r="B54" s="2">
-        <v>44415</v>
+        <v>44435</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2">
-        <v>29985</v>
+        <v>28304</v>
       </c>
       <c r="E54" s="2">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J54" s="2">
-        <v>44415</v>
+        <v>44435</v>
       </c>
       <c r="L54" t="s">
         <v>0</v>
@@ -4355,14 +4337,14 @@
         <v>1</v>
       </c>
       <c r="AN54" s="2">
-        <v>44415</v>
+        <v>44435</v>
       </c>
       <c r="AO54" s="4"/>
       <c r="AS54" s="3"/>
       <c r="AU54" s="4"/>
       <c r="AY54" s="3"/>
       <c r="BH54" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI54" t="s">
         <v>3</v>
@@ -4370,25 +4352,25 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>352198582646</v>
+        <v>352196699813</v>
       </c>
       <c r="B55" s="2">
-        <v>44433</v>
+        <v>44418</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2">
-        <v>31837</v>
+        <v>30432</v>
       </c>
       <c r="E55" s="2">
-        <v>44431</v>
+        <v>44415</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="J55" s="2">
-        <v>44433</v>
+        <v>44418</v>
       </c>
       <c r="L55" t="s">
         <v>0</v>
@@ -4407,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="AN55" s="2">
-        <v>44433</v>
+        <v>44418</v>
       </c>
       <c r="AO55" s="4"/>
       <c r="AS55" s="3"/>
@@ -4422,25 +4404,25 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>352197488413</v>
+        <v>352197331104</v>
       </c>
       <c r="B56" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2">
-        <v>30258</v>
+        <v>31423</v>
       </c>
       <c r="E56" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="J56" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="L56" t="s">
         <v>0</v>
@@ -4459,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="AN56" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="AO56" s="4"/>
       <c r="AS56" s="3"/>
@@ -4474,28 +4456,22 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>352196354074</v>
+        <v>352196943797</v>
       </c>
       <c r="B57" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2">
-        <v>25458</v>
+        <v>32272</v>
       </c>
       <c r="E57" s="2">
-        <v>44351</v>
+        <v>44415</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
-      </c>
-      <c r="J57" s="2">
-        <v>44414</v>
-      </c>
-      <c r="L57" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="M57" s="3"/>
       <c r="O57" s="4"/>
@@ -4504,21 +4480,11 @@
       <c r="AD57" s="4"/>
       <c r="AE57" s="3"/>
       <c r="AG57" s="4"/>
-      <c r="AL57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN57" s="2">
-        <v>44414</v>
-      </c>
-      <c r="AO57" s="4"/>
-      <c r="AS57" s="3"/>
+      <c r="AL57" s="3"/>
       <c r="AU57" s="4"/>
       <c r="AY57" s="3"/>
       <c r="BH57" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI57" t="s">
         <v>3</v>
@@ -4526,25 +4492,25 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>352199140459</v>
+        <v>352197550893</v>
       </c>
       <c r="B58" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2">
-        <v>35059</v>
+        <v>31480</v>
       </c>
       <c r="E58" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J58" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="L58" t="s">
         <v>0</v>
@@ -4563,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="AN58" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="AO58" s="4"/>
       <c r="AS58" s="3"/>
@@ -4578,22 +4544,22 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>352198886150</v>
+        <v>352198802489</v>
       </c>
       <c r="B59" s="2">
         <v>44435</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2">
-        <v>28304</v>
+        <v>38278</v>
       </c>
       <c r="E59" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="J59" s="2">
         <v>44435</v>
@@ -4622,7 +4588,7 @@
       <c r="AU59" s="4"/>
       <c r="AY59" s="3"/>
       <c r="BH59" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI59" t="s">
         <v>3</v>
@@ -4630,28 +4596,28 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>352196699813</v>
+        <v>352197620624</v>
       </c>
       <c r="B60" s="2">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D60" s="2">
-        <v>30432</v>
+        <v>25192</v>
       </c>
       <c r="E60" s="2">
-        <v>44415</v>
+        <v>44282</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="J60" s="2">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="L60" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="3"/>
       <c r="O60" s="4"/>
@@ -4661,13 +4627,13 @@
       <c r="AE60" s="3"/>
       <c r="AG60" s="4"/>
       <c r="AL60" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM60" t="s">
         <v>1</v>
       </c>
       <c r="AN60" s="2">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="AO60" s="4"/>
       <c r="AS60" s="3"/>
@@ -4682,25 +4648,25 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>352197331104</v>
+        <v>352195969506</v>
       </c>
       <c r="B61" s="2">
-        <v>44423</v>
+        <v>44411</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2">
-        <v>31423</v>
+        <v>27915</v>
       </c>
       <c r="E61" s="2">
-        <v>44419</v>
+        <v>44409</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J61" s="2">
-        <v>44423</v>
+        <v>44411</v>
       </c>
       <c r="L61" t="s">
         <v>0</v>
@@ -4719,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AN61" s="2">
-        <v>44423</v>
+        <v>44411</v>
       </c>
       <c r="AO61" s="4"/>
       <c r="AS61" s="3"/>
@@ -4734,22 +4700,28 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>352196943797</v>
+        <v>352196682438</v>
       </c>
       <c r="B62" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" s="2">
-        <v>32272</v>
+        <v>21723</v>
       </c>
       <c r="E62" s="2">
-        <v>44415</v>
+        <v>44402</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44418</v>
+      </c>
+      <c r="L62" t="s">
+        <v>0</v>
       </c>
       <c r="M62" s="3"/>
       <c r="O62" s="4"/>
@@ -4758,11 +4730,21 @@
       <c r="AD62" s="4"/>
       <c r="AE62" s="3"/>
       <c r="AG62" s="4"/>
-      <c r="AL62" s="3"/>
+      <c r="AL62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>44418</v>
+      </c>
+      <c r="AO62" s="4"/>
+      <c r="AS62" s="3"/>
       <c r="AU62" s="4"/>
       <c r="AY62" s="3"/>
       <c r="BH62" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI62" t="s">
         <v>3</v>
@@ -4770,25 +4752,25 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>352197550893</v>
+        <v>352198924024</v>
       </c>
       <c r="B63" s="2">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D63" s="2">
-        <v>31480</v>
+        <v>30747</v>
       </c>
       <c r="E63" s="2">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J63" s="2">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="L63" t="s">
         <v>0</v>
@@ -4807,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="AN63" s="2">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="AO63" s="4"/>
       <c r="AS63" s="3"/>
@@ -4822,25 +4804,25 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352198802489</v>
+        <v>352198649023</v>
       </c>
       <c r="B64" s="2">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D64" s="2">
-        <v>38278</v>
+        <v>35887</v>
       </c>
       <c r="E64" s="2">
+        <v>44431</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="J64" s="2">
         <v>44433</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="2">
-        <v>44435</v>
       </c>
       <c r="L64" t="s">
         <v>0</v>
@@ -4859,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="AN64" s="2">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="AO64" s="4"/>
       <c r="AS64" s="3"/>
@@ -4874,28 +4856,28 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>352197620624</v>
+        <v>352196937217</v>
       </c>
       <c r="B65" s="2">
-        <v>44425</v>
+        <v>44419</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D65" s="2">
-        <v>25192</v>
+        <v>19115</v>
       </c>
       <c r="E65" s="2">
-        <v>44282</v>
+        <v>44413</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="J65" s="2">
-        <v>44284</v>
+        <v>44419</v>
       </c>
       <c r="L65" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M65" s="3"/>
       <c r="O65" s="4"/>
@@ -4905,13 +4887,13 @@
       <c r="AE65" s="3"/>
       <c r="AG65" s="4"/>
       <c r="AL65" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM65" t="s">
         <v>1</v>
       </c>
       <c r="AN65" s="2">
-        <v>44284</v>
+        <v>44419</v>
       </c>
       <c r="AO65" s="4"/>
       <c r="AS65" s="3"/>
@@ -4926,25 +4908,25 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>352195969506</v>
+        <v>352195853206</v>
       </c>
       <c r="B66" s="2">
         <v>44411</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D66" s="2">
-        <v>27915</v>
+        <v>33652</v>
       </c>
       <c r="E66" s="2">
-        <v>44409</v>
+        <v>44401</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="J66" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="L66" t="s">
         <v>0</v>
@@ -4963,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="AN66" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="AO66" s="4"/>
       <c r="AS66" s="3"/>
@@ -4978,25 +4960,25 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>352196682438</v>
+        <v>352196890077</v>
       </c>
       <c r="B67" s="2">
+        <v>44419</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="2">
+        <v>35726</v>
+      </c>
+      <c r="E67" s="2">
         <v>44418</v>
       </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="2">
-        <v>21723</v>
-      </c>
-      <c r="E67" s="2">
-        <v>44402</v>
-      </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="J67" s="2">
-        <v>44418</v>
+        <v>44388</v>
       </c>
       <c r="L67" t="s">
         <v>0</v>
@@ -5015,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="AN67" s="2">
-        <v>44418</v>
+        <v>44388</v>
       </c>
       <c r="AO67" s="4"/>
       <c r="AS67" s="3"/>
@@ -5030,25 +5012,25 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>352198924024</v>
+        <v>352197603978</v>
       </c>
       <c r="B68" s="2">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="C68" t="s">
         <v>145</v>
       </c>
       <c r="D68" s="2">
-        <v>30747</v>
+        <v>40798</v>
       </c>
       <c r="E68" s="2">
-        <v>44432</v>
+        <v>44424</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="J68" s="2">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="L68" t="s">
         <v>0</v>
@@ -5067,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="AN68" s="2">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="AO68" s="4"/>
       <c r="AS68" s="3"/>
@@ -5082,25 +5064,25 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>352198649023</v>
+        <v>352195639494</v>
       </c>
       <c r="B69" s="2">
-        <v>44433</v>
+        <v>44409</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2">
-        <v>35887</v>
+        <v>36657</v>
       </c>
       <c r="E69" s="2">
-        <v>44431</v>
+        <v>44402</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="J69" s="2">
-        <v>44433</v>
+        <v>44409</v>
       </c>
       <c r="L69" t="s">
         <v>0</v>
@@ -5119,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="AN69" s="2">
-        <v>44433</v>
+        <v>44409</v>
       </c>
       <c r="AO69" s="4"/>
       <c r="AS69" s="3"/>
@@ -5134,25 +5116,25 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>352196937217</v>
+        <v>352198286660</v>
       </c>
       <c r="B70" s="2">
-        <v>44419</v>
+        <v>44431</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2">
-        <v>19115</v>
+        <v>30991</v>
       </c>
       <c r="E70" s="2">
-        <v>44413</v>
+        <v>44430</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="J70" s="2">
-        <v>44419</v>
+        <v>44431</v>
       </c>
       <c r="L70" t="s">
         <v>0</v>
@@ -5171,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="AN70" s="2">
-        <v>44419</v>
+        <v>44431</v>
       </c>
       <c r="AO70" s="4"/>
       <c r="AS70" s="3"/>
@@ -5186,25 +5168,25 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>352195853206</v>
+        <v>352198761965</v>
       </c>
       <c r="B71" s="2">
-        <v>44411</v>
+        <v>44434</v>
       </c>
       <c r="C71" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="2">
-        <v>33652</v>
+        <v>36495</v>
       </c>
       <c r="E71" s="2">
-        <v>44401</v>
+        <v>44431</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="J71" s="2">
-        <v>44410</v>
+        <v>44434</v>
       </c>
       <c r="L71" t="s">
         <v>0</v>
@@ -5223,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="AN71" s="2">
-        <v>44410</v>
+        <v>44434</v>
       </c>
       <c r="AO71" s="4"/>
       <c r="AS71" s="3"/>
@@ -5238,25 +5220,25 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>352196890077</v>
+        <v>352196363952</v>
       </c>
       <c r="B72" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="C72" t="s">
         <v>150</v>
       </c>
       <c r="D72" s="2">
-        <v>35726</v>
+        <v>34877</v>
       </c>
       <c r="E72" s="2">
-        <v>44418</v>
+        <v>44409</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J72" s="2">
-        <v>44388</v>
+        <v>44414</v>
       </c>
       <c r="L72" t="s">
         <v>0</v>
@@ -5275,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="AN72" s="2">
-        <v>44388</v>
+        <v>44414</v>
       </c>
       <c r="AO72" s="4"/>
       <c r="AS72" s="3"/>
@@ -5290,28 +5272,22 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>352197603978</v>
+        <v>352196132238</v>
       </c>
       <c r="B73" s="2">
-        <v>44425</v>
+        <v>44412</v>
       </c>
       <c r="C73" t="s">
         <v>151</v>
       </c>
       <c r="D73" s="2">
-        <v>40798</v>
+        <v>38742</v>
       </c>
       <c r="E73" s="2">
-        <v>44424</v>
+        <v>44405</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
-      </c>
-      <c r="J73" s="2">
-        <v>44425</v>
-      </c>
-      <c r="L73" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="M73" s="3"/>
       <c r="O73" s="4"/>
@@ -5320,16 +5296,27 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="3"/>
       <c r="AG73" s="4"/>
+      <c r="AH73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>44405</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>5</v>
+      </c>
       <c r="AL73" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM73" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN73" s="2">
-        <v>44425</v>
-      </c>
-      <c r="AO73" s="4"/>
+        <v>44405</v>
+      </c>
+      <c r="AO73" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS73" s="3"/>
       <c r="AU73" s="4"/>
       <c r="AY73" s="3"/>
@@ -5342,25 +5329,25 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>352195639494</v>
+        <v>352195974028</v>
       </c>
       <c r="B74" s="2">
+        <v>44411</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="2">
+        <v>42160</v>
+      </c>
+      <c r="E74" s="2">
         <v>44409</v>
       </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="2">
-        <v>36657</v>
-      </c>
-      <c r="E74" s="2">
-        <v>44402</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
-      </c>
       <c r="J74" s="2">
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="L74" t="s">
         <v>0</v>
@@ -5379,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AN74" s="2">
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="AO74" s="4"/>
       <c r="AS74" s="3"/>
@@ -5394,25 +5381,25 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>352198286660</v>
+        <v>352195748175</v>
       </c>
       <c r="B75" s="2">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="C75" t="s">
         <v>154</v>
       </c>
       <c r="D75" s="2">
-        <v>30991</v>
+        <v>37348</v>
       </c>
       <c r="E75" s="2">
-        <v>44430</v>
+        <v>44408</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="J75" s="2">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="L75" t="s">
         <v>0</v>
@@ -5431,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="AN75" s="2">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="AO75" s="4"/>
       <c r="AS75" s="3"/>
@@ -5446,25 +5433,25 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>352198761965</v>
+        <v>352198936724</v>
       </c>
       <c r="B76" s="2">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2">
-        <v>36495</v>
+        <v>44145</v>
       </c>
       <c r="E76" s="2">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J76" s="2">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="L76" t="s">
         <v>0</v>
@@ -5483,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="AN76" s="2">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="AO76" s="4"/>
       <c r="AS76" s="3"/>
@@ -5498,25 +5485,25 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>352196363952</v>
+        <v>352197256694</v>
       </c>
       <c r="B77" s="2">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" s="2">
-        <v>34877</v>
+        <v>32696</v>
       </c>
       <c r="E77" s="2">
-        <v>44409</v>
+        <v>44419</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J77" s="2">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="L77" t="s">
         <v>0</v>
@@ -5535,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="AN77" s="2">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="AO77" s="4"/>
       <c r="AS77" s="3"/>
@@ -5550,22 +5537,28 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>352196132238</v>
+        <v>352196609506</v>
       </c>
       <c r="B78" s="2">
-        <v>44412</v>
+        <v>44417</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" s="2">
-        <v>38742</v>
+        <v>37416</v>
       </c>
       <c r="E78" s="2">
-        <v>44405</v>
+        <v>44415</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L78" t="s">
+        <v>0</v>
       </c>
       <c r="M78" s="3"/>
       <c r="O78" s="4"/>
@@ -5574,27 +5567,16 @@
       <c r="AD78" s="4"/>
       <c r="AE78" s="3"/>
       <c r="AG78" s="4"/>
-      <c r="AH78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI78" s="2">
-        <v>44405</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>5</v>
-      </c>
       <c r="AL78" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM78" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN78" s="2">
-        <v>44405</v>
-      </c>
-      <c r="AO78" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44417</v>
+      </c>
+      <c r="AO78" s="4"/>
       <c r="AS78" s="3"/>
       <c r="AU78" s="4"/>
       <c r="AY78" s="3"/>
@@ -5607,25 +5589,25 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>352195974028</v>
+        <v>352197812040</v>
       </c>
       <c r="B79" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2">
-        <v>42160</v>
+        <v>31514</v>
       </c>
       <c r="E79" s="2">
-        <v>44409</v>
+        <v>44420</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="J79" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="L79" t="s">
         <v>0</v>
@@ -5644,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="AN79" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="AO79" s="4"/>
       <c r="AS79" s="3"/>
@@ -5659,25 +5641,25 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>352195748175</v>
+        <v>352197935475</v>
       </c>
       <c r="B80" s="2">
-        <v>44410</v>
+        <v>44427</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D80" s="2">
-        <v>37348</v>
+        <v>30153</v>
       </c>
       <c r="E80" s="2">
-        <v>44408</v>
+        <v>44422</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="J80" s="2">
-        <v>44410</v>
+        <v>44427</v>
       </c>
       <c r="L80" t="s">
         <v>0</v>
@@ -5696,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AN80" s="2">
-        <v>44410</v>
+        <v>44427</v>
       </c>
       <c r="AO80" s="4"/>
       <c r="AS80" s="3"/>
@@ -5711,25 +5693,25 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>352198936724</v>
+        <v>352196245153</v>
       </c>
       <c r="B81" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="C81" t="s">
         <v>162</v>
       </c>
       <c r="D81" s="2">
-        <v>44145</v>
+        <v>28367</v>
       </c>
       <c r="E81" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J81" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="L81" t="s">
         <v>0</v>
@@ -5748,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="AN81" s="2">
-        <v>44436</v>
+        <v>44413</v>
       </c>
       <c r="AO81" s="4"/>
       <c r="AS81" s="3"/>
@@ -5763,25 +5745,25 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>352197256694</v>
+        <v>352196347436</v>
       </c>
       <c r="B82" s="2">
-        <v>44421</v>
+        <v>44414</v>
       </c>
       <c r="C82" t="s">
         <v>163</v>
       </c>
       <c r="D82" s="2">
-        <v>32696</v>
+        <v>29991</v>
       </c>
       <c r="E82" s="2">
-        <v>44419</v>
+        <v>44408</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="J82" s="2">
-        <v>44421</v>
+        <v>44414</v>
       </c>
       <c r="L82" t="s">
         <v>0</v>
@@ -5800,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="AN82" s="2">
-        <v>44421</v>
+        <v>44414</v>
       </c>
       <c r="AO82" s="4"/>
       <c r="AS82" s="3"/>
@@ -5815,28 +5797,31 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>352196609506</v>
+        <v>352199262055</v>
       </c>
       <c r="B83" s="2">
-        <v>44417</v>
+        <v>44439</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" s="2">
-        <v>37416</v>
+        <v>33600</v>
       </c>
       <c r="E83" s="2">
-        <v>44415</v>
+        <v>44436</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="J83" s="2">
-        <v>44417</v>
+        <v>44439</v>
+      </c>
+      <c r="K83" t="s">
+        <v>5</v>
       </c>
       <c r="L83" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M83" s="3"/>
       <c r="O83" s="4"/>
@@ -5846,15 +5831,17 @@
       <c r="AE83" s="3"/>
       <c r="AG83" s="4"/>
       <c r="AL83" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM83" t="s">
         <v>1</v>
       </c>
       <c r="AN83" s="2">
-        <v>44417</v>
-      </c>
-      <c r="AO83" s="4"/>
+        <v>44439</v>
+      </c>
+      <c r="AO83" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS83" s="3"/>
       <c r="AU83" s="4"/>
       <c r="AY83" s="3"/>
@@ -5867,25 +5854,25 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>352197812040</v>
+        <v>352197828537</v>
       </c>
       <c r="B84" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C84" t="s">
         <v>166</v>
       </c>
       <c r="D84" s="2">
-        <v>31514</v>
+        <v>30590</v>
       </c>
       <c r="E84" s="2">
-        <v>44420</v>
+        <v>44425</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J84" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="L84" t="s">
         <v>0</v>
@@ -5904,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="AN84" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="AO84" s="4"/>
       <c r="AS84" s="3"/>
@@ -5919,25 +5906,25 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>352197935475</v>
+        <v>352198178686</v>
       </c>
       <c r="B85" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="C85" t="s">
         <v>167</v>
       </c>
       <c r="D85" s="2">
-        <v>30153</v>
+        <v>33910</v>
       </c>
       <c r="E85" s="2">
-        <v>44422</v>
+        <v>44426</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J85" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="L85" t="s">
         <v>0</v>
@@ -5956,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="AN85" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="AO85" s="4"/>
       <c r="AS85" s="3"/>
@@ -5971,25 +5958,25 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>352196245153</v>
+        <v>352196487137</v>
       </c>
       <c r="B86" s="2">
-        <v>44413</v>
+        <v>44416</v>
       </c>
       <c r="C86" t="s">
         <v>168</v>
       </c>
       <c r="D86" s="2">
-        <v>28367</v>
+        <v>30161</v>
       </c>
       <c r="E86" s="2">
-        <v>44411</v>
+        <v>44415</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J86" s="2">
-        <v>44413</v>
+        <v>44416</v>
       </c>
       <c r="L86" t="s">
         <v>0</v>
@@ -6008,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="AN86" s="2">
-        <v>44413</v>
+        <v>44416</v>
       </c>
       <c r="AO86" s="4"/>
       <c r="AS86" s="3"/>
@@ -6023,25 +6010,25 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>352196347436</v>
+        <v>352198931428</v>
       </c>
       <c r="B87" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="C87" t="s">
         <v>169</v>
       </c>
       <c r="D87" s="2">
-        <v>29991</v>
+        <v>29732</v>
       </c>
       <c r="E87" s="2">
-        <v>44408</v>
+        <v>44432</v>
       </c>
       <c r="F87" t="s">
         <v>170</v>
       </c>
       <c r="J87" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="L87" t="s">
         <v>0</v>
@@ -6060,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AN87" s="2">
-        <v>44414</v>
+        <v>44436</v>
       </c>
       <c r="AO87" s="4"/>
       <c r="AS87" s="3"/>
@@ -6075,31 +6062,28 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>352199262055</v>
+        <v>352195643058</v>
       </c>
       <c r="B88" s="2">
-        <v>44439</v>
+        <v>44409</v>
       </c>
       <c r="C88" t="s">
         <v>171</v>
       </c>
       <c r="D88" s="2">
-        <v>33600</v>
+        <v>34783</v>
       </c>
       <c r="E88" s="2">
-        <v>44436</v>
+        <v>44404</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="J88" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K88" t="s">
-        <v>5</v>
+        <v>44409</v>
       </c>
       <c r="L88" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3"/>
       <c r="O88" s="4"/>
@@ -6109,17 +6093,15 @@
       <c r="AE88" s="3"/>
       <c r="AG88" s="4"/>
       <c r="AL88" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="s">
         <v>1</v>
       </c>
       <c r="AN88" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO88" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="AO88" s="4"/>
       <c r="AS88" s="3"/>
       <c r="AU88" s="4"/>
       <c r="AY88" s="3"/>
@@ -6132,25 +6114,25 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>352197828537</v>
+        <v>352196933857</v>
       </c>
       <c r="B89" s="2">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" s="2">
-        <v>30590</v>
+        <v>30958</v>
       </c>
       <c r="E89" s="2">
-        <v>44425</v>
+        <v>44404</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="J89" s="2">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="L89" t="s">
         <v>0</v>
@@ -6169,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AN89" s="2">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="AO89" s="4"/>
       <c r="AS89" s="3"/>
@@ -6184,25 +6166,25 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>352198178686</v>
+        <v>352197897448</v>
       </c>
       <c r="B90" s="2">
-        <v>44430</v>
+        <v>44427</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D90" s="2">
-        <v>33910</v>
+        <v>33104</v>
       </c>
       <c r="E90" s="2">
+        <v>44422</v>
+      </c>
+      <c r="F90" t="s">
+        <v>176</v>
+      </c>
+      <c r="J90" s="2">
         <v>44426</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-      <c r="J90" s="2">
-        <v>44430</v>
       </c>
       <c r="L90" t="s">
         <v>0</v>
@@ -6221,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="AN90" s="2">
-        <v>44430</v>
+        <v>44426</v>
       </c>
       <c r="AO90" s="4"/>
       <c r="AS90" s="3"/>
@@ -6236,25 +6218,25 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>352196487137</v>
+        <v>352198059756</v>
       </c>
       <c r="B91" s="2">
-        <v>44416</v>
+        <v>44427</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D91" s="2">
-        <v>30161</v>
+        <v>29630</v>
       </c>
       <c r="E91" s="2">
-        <v>44415</v>
+        <v>44423</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J91" s="2">
-        <v>44416</v>
+        <v>44427</v>
       </c>
       <c r="L91" t="s">
         <v>0</v>
@@ -6273,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="AN91" s="2">
-        <v>44416</v>
+        <v>44427</v>
       </c>
       <c r="AO91" s="4"/>
       <c r="AS91" s="3"/>
@@ -6288,28 +6270,31 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>352198931428</v>
+        <v>352199234157</v>
       </c>
       <c r="B92" s="2">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D92" s="2">
-        <v>29732</v>
+        <v>32358</v>
       </c>
       <c r="E92" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="J92" s="2">
-        <v>44436</v>
+        <v>44439</v>
+      </c>
+      <c r="K92" t="s">
+        <v>5</v>
       </c>
       <c r="L92" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M92" s="3"/>
       <c r="O92" s="4"/>
@@ -6319,15 +6304,17 @@
       <c r="AE92" s="3"/>
       <c r="AG92" s="4"/>
       <c r="AL92" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM92" t="s">
         <v>1</v>
       </c>
       <c r="AN92" s="2">
-        <v>44436</v>
-      </c>
-      <c r="AO92" s="4"/>
+        <v>44439</v>
+      </c>
+      <c r="AO92" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS92" s="3"/>
       <c r="AU92" s="4"/>
       <c r="AY92" s="3"/>
@@ -6340,25 +6327,25 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>352195643058</v>
+        <v>352196155455</v>
       </c>
       <c r="B93" s="2">
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D93" s="2">
-        <v>34783</v>
+        <v>32644</v>
       </c>
       <c r="E93" s="2">
-        <v>44404</v>
+        <v>44408</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="J93" s="2">
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="L93" t="s">
         <v>0</v>
@@ -6377,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="AN93" s="2">
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="AO93" s="4"/>
       <c r="AS93" s="3"/>
@@ -6392,25 +6379,25 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>352196933857</v>
+        <v>352198475171</v>
       </c>
       <c r="B94" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2">
-        <v>30958</v>
+        <v>40963</v>
       </c>
       <c r="E94" s="2">
-        <v>44404</v>
+        <v>44427</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="J94" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="L94" t="s">
         <v>0</v>
@@ -6429,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="AN94" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="AO94" s="4"/>
       <c r="AS94" s="3"/>
@@ -6444,25 +6431,25 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>352197897448</v>
+        <v>352196258225</v>
       </c>
       <c r="B95" s="2">
-        <v>44427</v>
+        <v>44413</v>
       </c>
       <c r="C95" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="2">
-        <v>33104</v>
+        <v>33120</v>
       </c>
       <c r="E95" s="2">
-        <v>44422</v>
+        <v>44409</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="J95" s="2">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="L95" t="s">
         <v>0</v>
@@ -6481,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="AN95" s="2">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="AO95" s="4"/>
       <c r="AS95" s="3"/>
@@ -6496,25 +6483,25 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>352198059756</v>
+        <v>352198291664</v>
       </c>
       <c r="B96" s="2">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="2">
+        <v>31211</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44428</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="2">
-        <v>29630</v>
-      </c>
-      <c r="E96" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F96" t="s">
-        <v>109</v>
-      </c>
       <c r="J96" s="2">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="L96" t="s">
         <v>0</v>
@@ -6533,14 +6520,14 @@
         <v>1</v>
       </c>
       <c r="AN96" s="2">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="AO96" s="4"/>
       <c r="AS96" s="3"/>
       <c r="AU96" s="4"/>
       <c r="AY96" s="3"/>
       <c r="BH96" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI96" t="s">
         <v>3</v>
@@ -6548,31 +6535,28 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>352199234157</v>
+        <v>352199103749</v>
       </c>
       <c r="B97" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="C97" t="s">
         <v>184</v>
       </c>
       <c r="D97" s="2">
-        <v>32358</v>
+        <v>34751</v>
       </c>
       <c r="E97" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="J97" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K97" t="s">
-        <v>5</v>
+        <v>44438</v>
       </c>
       <c r="L97" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M97" s="3"/>
       <c r="O97" s="4"/>
@@ -6582,17 +6566,15 @@
       <c r="AE97" s="3"/>
       <c r="AG97" s="4"/>
       <c r="AL97" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM97" t="s">
         <v>1</v>
       </c>
       <c r="AN97" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO97" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44438</v>
+      </c>
+      <c r="AO97" s="4"/>
       <c r="AS97" s="3"/>
       <c r="AU97" s="4"/>
       <c r="AY97" s="3"/>
@@ -6605,25 +6587,25 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>352196155455</v>
+        <v>352195781938</v>
       </c>
       <c r="B98" s="2">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D98" s="2">
-        <v>32644</v>
+        <v>35059</v>
       </c>
       <c r="E98" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J98" s="2">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="L98" t="s">
         <v>0</v>
@@ -6642,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="AN98" s="2">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="AO98" s="4"/>
       <c r="AS98" s="3"/>
@@ -6657,28 +6639,22 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>352198475171</v>
+        <v>352198519546</v>
       </c>
       <c r="B99" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D99" s="2">
-        <v>40963</v>
+        <v>33949</v>
       </c>
       <c r="E99" s="2">
-        <v>44427</v>
+        <v>44432</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="J99" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L99" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M99" s="3"/>
       <c r="O99" s="4"/>
@@ -6687,19 +6663,39 @@
       <c r="AD99" s="4"/>
       <c r="AE99" s="3"/>
       <c r="AG99" s="4"/>
+      <c r="AH99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI99" s="2">
+        <v>44432</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>5</v>
+      </c>
       <c r="AL99" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM99" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN99" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO99" s="4"/>
+        <v>44432</v>
+      </c>
+      <c r="AO99" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS99" s="3"/>
       <c r="AU99" s="4"/>
       <c r="AY99" s="3"/>
+      <c r="BD99" t="s">
+        <v>188</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF99" s="2">
+        <v>44470</v>
+      </c>
       <c r="BH99" t="s">
         <v>2</v>
       </c>
@@ -6709,25 +6705,25 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>352196258225</v>
+        <v>352198482096</v>
       </c>
       <c r="B100" s="2">
-        <v>44413</v>
+        <v>44432</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D100" s="2">
-        <v>33120</v>
+        <v>36348</v>
       </c>
       <c r="E100" s="2">
-        <v>44409</v>
+        <v>44425</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J100" s="2">
-        <v>44413</v>
+        <v>44432</v>
       </c>
       <c r="L100" t="s">
         <v>0</v>
@@ -6746,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="AN100" s="2">
-        <v>44413</v>
+        <v>44432</v>
       </c>
       <c r="AO100" s="4"/>
       <c r="AS100" s="3"/>
@@ -6761,25 +6757,25 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>352198291664</v>
+        <v>352197677261</v>
       </c>
       <c r="B101" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D101" s="2">
-        <v>31211</v>
+        <v>39153</v>
       </c>
       <c r="E101" s="2">
-        <v>44428</v>
+        <v>44425</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J101" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="L101" t="s">
         <v>0</v>
@@ -6798,14 +6794,14 @@
         <v>1</v>
       </c>
       <c r="AN101" s="2">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="AO101" s="4"/>
       <c r="AS101" s="3"/>
       <c r="AU101" s="4"/>
       <c r="AY101" s="3"/>
       <c r="BH101" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI101" t="s">
         <v>3</v>
@@ -6813,25 +6809,25 @@
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>352199103749</v>
+        <v>352197603060</v>
       </c>
       <c r="B102" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D102" s="2">
-        <v>34751</v>
+        <v>19165</v>
       </c>
       <c r="E102" s="2">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J102" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="L102" t="s">
         <v>0</v>
@@ -6850,14 +6846,14 @@
         <v>1</v>
       </c>
       <c r="AN102" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="AO102" s="4"/>
       <c r="AS102" s="3"/>
       <c r="AU102" s="4"/>
       <c r="AY102" s="3"/>
       <c r="BH102" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI102" t="s">
         <v>3</v>
@@ -6865,28 +6861,22 @@
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>352195781938</v>
+        <v>352196723571</v>
       </c>
       <c r="B103" s="2">
-        <v>44410</v>
+        <v>44418</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D103" s="2">
-        <v>35059</v>
+        <v>32180</v>
       </c>
       <c r="E103" s="2">
-        <v>44405</v>
+        <v>44417</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
-      </c>
-      <c r="J103" s="2">
-        <v>44410</v>
-      </c>
-      <c r="L103" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M103" s="3"/>
       <c r="O103" s="4"/>
@@ -6895,17 +6885,7 @@
       <c r="AD103" s="4"/>
       <c r="AE103" s="3"/>
       <c r="AG103" s="4"/>
-      <c r="AL103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN103" s="2">
-        <v>44410</v>
-      </c>
-      <c r="AO103" s="4"/>
-      <c r="AS103" s="3"/>
+      <c r="AL103" s="3"/>
       <c r="AU103" s="4"/>
       <c r="AY103" s="3"/>
       <c r="BH103" t="s">
@@ -6917,22 +6897,28 @@
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>352198519546</v>
+        <v>352196663052</v>
       </c>
       <c r="B104" s="2">
-        <v>44433</v>
+        <v>44418</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D104" s="2">
-        <v>33949</v>
+        <v>37657</v>
       </c>
       <c r="E104" s="2">
-        <v>44432</v>
+        <v>44414</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>197</v>
+      </c>
+      <c r="J104" s="2">
+        <v>44418</v>
+      </c>
+      <c r="L104" t="s">
+        <v>0</v>
       </c>
       <c r="M104" s="3"/>
       <c r="O104" s="4"/>
@@ -6941,39 +6927,19 @@
       <c r="AD104" s="4"/>
       <c r="AE104" s="3"/>
       <c r="AG104" s="4"/>
-      <c r="AH104" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI104" s="2">
-        <v>44432</v>
-      </c>
-      <c r="AJ104" t="s">
-        <v>5</v>
-      </c>
       <c r="AL104" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM104" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN104" s="2">
-        <v>44432</v>
-      </c>
-      <c r="AO104" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44418</v>
+      </c>
+      <c r="AO104" s="4"/>
       <c r="AS104" s="3"/>
       <c r="AU104" s="4"/>
       <c r="AY104" s="3"/>
-      <c r="BD104" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE104" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF104" s="2">
-        <v>44470</v>
-      </c>
       <c r="BH104" t="s">
         <v>2</v>
       </c>
@@ -6983,28 +6949,22 @@
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>352198482096</v>
+        <v>352198251337</v>
       </c>
       <c r="B105" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D105" s="2">
-        <v>36348</v>
+        <v>31170</v>
       </c>
       <c r="E105" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="2">
-        <v>44432</v>
-      </c>
-      <c r="L105" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M105" s="3"/>
       <c r="O105" s="4"/>
@@ -7013,17 +6973,7 @@
       <c r="AD105" s="4"/>
       <c r="AE105" s="3"/>
       <c r="AG105" s="4"/>
-      <c r="AL105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN105" s="2">
-        <v>44432</v>
-      </c>
-      <c r="AO105" s="4"/>
-      <c r="AS105" s="3"/>
+      <c r="AL105" s="3"/>
       <c r="AU105" s="4"/>
       <c r="AY105" s="3"/>
       <c r="BH105" t="s">
@@ -7035,25 +6985,25 @@
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>352197677261</v>
+        <v>352198973430</v>
       </c>
       <c r="B106" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D106" s="2">
-        <v>39153</v>
+        <v>37371</v>
       </c>
       <c r="E106" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="J106" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="L106" t="s">
         <v>0</v>
@@ -7072,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="AN106" s="2">
-        <v>44425</v>
+        <v>44436</v>
       </c>
       <c r="AO106" s="4"/>
       <c r="AS106" s="3"/>
@@ -7087,28 +7037,31 @@
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>352197603060</v>
+        <v>352197589154</v>
       </c>
       <c r="B107" s="2">
         <v>44425</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D107" s="2">
-        <v>19165</v>
+        <v>44262</v>
       </c>
       <c r="E107" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="J107" s="2">
         <v>44425</v>
       </c>
+      <c r="K107" t="s">
+        <v>5</v>
+      </c>
       <c r="L107" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M107" s="3"/>
       <c r="O107" s="4"/>
@@ -7118,7 +7071,7 @@
       <c r="AE107" s="3"/>
       <c r="AG107" s="4"/>
       <c r="AL107" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM107" t="s">
         <v>1</v>
@@ -7126,12 +7079,23 @@
       <c r="AN107" s="2">
         <v>44425</v>
       </c>
-      <c r="AO107" s="4"/>
+      <c r="AO107" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS107" s="3"/>
       <c r="AU107" s="4"/>
       <c r="AY107" s="3"/>
+      <c r="BD107" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE107" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF107" s="2">
+        <v>44442</v>
+      </c>
       <c r="BH107" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI107" t="s">
         <v>3</v>
@@ -7139,22 +7103,28 @@
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>352196723571</v>
+        <v>352197845551</v>
       </c>
       <c r="B108" s="2">
-        <v>44418</v>
+        <v>44426</v>
       </c>
       <c r="C108" t="s">
         <v>201</v>
       </c>
       <c r="D108" s="2">
-        <v>32180</v>
+        <v>42992</v>
       </c>
       <c r="E108" s="2">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>202</v>
+      </c>
+      <c r="J108" s="2">
+        <v>44426</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
       </c>
       <c r="M108" s="3"/>
       <c r="O108" s="4"/>
@@ -7163,7 +7133,17 @@
       <c r="AD108" s="4"/>
       <c r="AE108" s="3"/>
       <c r="AG108" s="4"/>
-      <c r="AL108" s="3"/>
+      <c r="AL108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN108" s="2">
+        <v>44426</v>
+      </c>
+      <c r="AO108" s="4"/>
+      <c r="AS108" s="3"/>
       <c r="AU108" s="4"/>
       <c r="AY108" s="3"/>
       <c r="BH108" t="s">
@@ -7175,25 +7155,25 @@
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>352196663052</v>
+        <v>352197247272</v>
       </c>
       <c r="B109" s="2">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D109" s="2">
-        <v>37657</v>
+        <v>43479</v>
       </c>
       <c r="E109" s="2">
-        <v>44414</v>
+        <v>44416</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="J109" s="2">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="L109" t="s">
         <v>0</v>
@@ -7212,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="AN109" s="2">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="AO109" s="4"/>
       <c r="AS109" s="3"/>
@@ -7227,22 +7207,28 @@
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>352198251337</v>
+        <v>352198433747</v>
       </c>
       <c r="B110" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C110" t="s">
         <v>204</v>
       </c>
       <c r="D110" s="2">
-        <v>31170</v>
+        <v>43531</v>
       </c>
       <c r="E110" s="2">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="J110" s="2">
+        <v>44432</v>
+      </c>
+      <c r="L110" t="s">
+        <v>0</v>
       </c>
       <c r="M110" s="3"/>
       <c r="O110" s="4"/>
@@ -7251,7 +7237,17 @@
       <c r="AD110" s="4"/>
       <c r="AE110" s="3"/>
       <c r="AG110" s="4"/>
-      <c r="AL110" s="3"/>
+      <c r="AL110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN110" s="2">
+        <v>44432</v>
+      </c>
+      <c r="AO110" s="4"/>
+      <c r="AS110" s="3"/>
       <c r="AU110" s="4"/>
       <c r="AY110" s="3"/>
       <c r="BH110" t="s">
@@ -7263,25 +7259,25 @@
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>352198973430</v>
+        <v>352199167108</v>
       </c>
       <c r="B111" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="C111" t="s">
         <v>205</v>
       </c>
       <c r="D111" s="2">
-        <v>37371</v>
+        <v>35854</v>
       </c>
       <c r="E111" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J111" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="L111" t="s">
         <v>0</v>
@@ -7300,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="AN111" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="AO111" s="4"/>
       <c r="AS111" s="3"/>
@@ -7315,31 +7311,28 @@
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>352197589154</v>
+        <v>352196639966</v>
       </c>
       <c r="B112" s="2">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="C112" t="s">
         <v>206</v>
       </c>
       <c r="D112" s="2">
-        <v>44262</v>
+        <v>41944</v>
       </c>
       <c r="E112" s="2">
-        <v>44425</v>
+        <v>44415</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J112" s="2">
-        <v>44425</v>
-      </c>
-      <c r="K112" t="s">
-        <v>5</v>
+        <v>44417</v>
       </c>
       <c r="L112" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M112" s="3"/>
       <c r="O112" s="4"/>
@@ -7349,29 +7342,18 @@
       <c r="AE112" s="3"/>
       <c r="AG112" s="4"/>
       <c r="AL112" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM112" t="s">
         <v>1</v>
       </c>
       <c r="AN112" s="2">
-        <v>44425</v>
-      </c>
-      <c r="AO112" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44417</v>
+      </c>
+      <c r="AO112" s="4"/>
       <c r="AS112" s="3"/>
       <c r="AU112" s="4"/>
       <c r="AY112" s="3"/>
-      <c r="BD112" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE112" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF112" s="2">
-        <v>44442</v>
-      </c>
       <c r="BH112" t="s">
         <v>2</v>
       </c>
@@ -7381,49 +7363,68 @@
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>352197845551</v>
+        <v>352196307599</v>
       </c>
       <c r="B113" s="2">
-        <v>44426</v>
+        <v>44414</v>
       </c>
       <c r="C113" t="s">
         <v>207</v>
       </c>
       <c r="D113" s="2">
-        <v>42992</v>
+        <v>34240</v>
       </c>
       <c r="E113" s="2">
-        <v>44422</v>
+        <v>44411</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
-      </c>
-      <c r="J113" s="2">
-        <v>44426</v>
-      </c>
-      <c r="L113" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M113" s="3"/>
       <c r="O113" s="4"/>
-      <c r="V113" s="3"/>
+      <c r="S113" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T113" s="2">
+        <v>44414</v>
+      </c>
+      <c r="U113" s="4"/>
+      <c r="V113" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W113" s="2">
+        <v>44414</v>
+      </c>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="3"/>
       <c r="AG113" s="4"/>
       <c r="AL113" s="3" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="AM113" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AN113" s="2">
-        <v>44426</v>
+        <v>44414</v>
       </c>
       <c r="AO113" s="4"/>
-      <c r="AS113" s="3"/>
+      <c r="AR113" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT113" s="2">
+        <v>44414</v>
+      </c>
       <c r="AU113" s="4"/>
       <c r="AY113" s="3"/>
+      <c r="BE113" t="s">
+        <v>45</v>
+      </c>
       <c r="BH113" t="s">
         <v>2</v>
       </c>
@@ -7433,25 +7434,25 @@
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>352197247272</v>
+        <v>352196104938</v>
       </c>
       <c r="B114" s="2">
-        <v>44421</v>
+        <v>44412</v>
       </c>
       <c r="C114" t="s">
         <v>209</v>
       </c>
       <c r="D114" s="2">
-        <v>43479</v>
+        <v>34240</v>
       </c>
       <c r="E114" s="2">
-        <v>44416</v>
+        <v>44410</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J114" s="2">
-        <v>44421</v>
+        <v>44412</v>
       </c>
       <c r="L114" t="s">
         <v>0</v>
@@ -7470,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="AN114" s="2">
-        <v>44421</v>
+        <v>44412</v>
       </c>
       <c r="AO114" s="4"/>
       <c r="AS114" s="3"/>
@@ -7485,25 +7486,25 @@
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>352198433747</v>
+        <v>352195945606</v>
       </c>
       <c r="B115" s="2">
-        <v>44432</v>
+        <v>44411</v>
       </c>
       <c r="C115" t="s">
         <v>210</v>
       </c>
       <c r="D115" s="2">
-        <v>43531</v>
+        <v>37026</v>
       </c>
       <c r="E115" s="2">
-        <v>44430</v>
+        <v>44407</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="J115" s="2">
-        <v>44432</v>
+        <v>44411</v>
       </c>
       <c r="L115" t="s">
         <v>0</v>
@@ -7522,14 +7523,14 @@
         <v>1</v>
       </c>
       <c r="AN115" s="2">
-        <v>44432</v>
+        <v>44411</v>
       </c>
       <c r="AO115" s="4"/>
       <c r="AS115" s="3"/>
       <c r="AU115" s="4"/>
       <c r="AY115" s="3"/>
       <c r="BH115" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI115" t="s">
         <v>3</v>
@@ -7537,28 +7538,22 @@
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>352199167108</v>
+        <v>352197895760</v>
       </c>
       <c r="B116" s="2">
-        <v>44438</v>
+        <v>44426</v>
       </c>
       <c r="C116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D116" s="2">
-        <v>35854</v>
+        <v>36357</v>
       </c>
       <c r="E116" s="2">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
-      </c>
-      <c r="J116" s="2">
-        <v>44438</v>
-      </c>
-      <c r="L116" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="M116" s="3"/>
       <c r="O116" s="4"/>
@@ -7567,17 +7562,7 @@
       <c r="AD116" s="4"/>
       <c r="AE116" s="3"/>
       <c r="AG116" s="4"/>
-      <c r="AL116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM116" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN116" s="2">
-        <v>44438</v>
-      </c>
-      <c r="AO116" s="4"/>
-      <c r="AS116" s="3"/>
+      <c r="AL116" s="3"/>
       <c r="AU116" s="4"/>
       <c r="AY116" s="3"/>
       <c r="BH116" t="s">
@@ -7589,25 +7574,25 @@
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>352196639966</v>
+        <v>352195714322</v>
       </c>
       <c r="B117" s="2">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D117" s="2">
-        <v>41944</v>
+        <v>25707</v>
       </c>
       <c r="E117" s="2">
-        <v>44415</v>
+        <v>44406</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="J117" s="2">
-        <v>44417</v>
+        <v>44407</v>
       </c>
       <c r="L117" t="s">
         <v>0</v>
@@ -7626,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="AN117" s="2">
-        <v>44417</v>
+        <v>44407</v>
       </c>
       <c r="AO117" s="4"/>
       <c r="AS117" s="3"/>
@@ -7641,68 +7626,49 @@
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>352196307599</v>
+        <v>352198889095</v>
       </c>
       <c r="B118" s="2">
-        <v>44414</v>
+        <v>44435</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D118" s="2">
-        <v>34240</v>
+        <v>33499</v>
       </c>
       <c r="E118" s="2">
-        <v>44411</v>
+        <v>44433</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="J118" s="2">
+        <v>44435</v>
+      </c>
+      <c r="L118" t="s">
+        <v>0</v>
       </c>
       <c r="M118" s="3"/>
       <c r="O118" s="4"/>
-      <c r="S118" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="T118" s="2">
-        <v>44414</v>
-      </c>
-      <c r="U118" s="4"/>
-      <c r="V118" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="W118" s="2">
-        <v>44414</v>
-      </c>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="3"/>
+      <c r="V118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AD118" s="4"/>
       <c r="AE118" s="3"/>
       <c r="AG118" s="4"/>
       <c r="AL118" s="3" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AM118" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AN118" s="2">
-        <v>44414</v>
+        <v>44435</v>
       </c>
       <c r="AO118" s="4"/>
-      <c r="AR118" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT118" s="2">
-        <v>44414</v>
-      </c>
+      <c r="AS118" s="3"/>
       <c r="AU118" s="4"/>
       <c r="AY118" s="3"/>
-      <c r="BE118" t="s">
-        <v>46</v>
-      </c>
       <c r="BH118" t="s">
         <v>2</v>
       </c>
@@ -7712,25 +7678,25 @@
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>352196104938</v>
+        <v>352196785824</v>
       </c>
       <c r="B119" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D119" s="2">
-        <v>34240</v>
+        <v>42375</v>
       </c>
       <c r="E119" s="2">
-        <v>44410</v>
+        <v>44416</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="J119" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="L119" t="s">
         <v>0</v>
@@ -7749,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="AN119" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="AO119" s="4"/>
       <c r="AS119" s="3"/>
@@ -7764,25 +7730,25 @@
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>352195945606</v>
+        <v>352196585642</v>
       </c>
       <c r="B120" s="2">
-        <v>44411</v>
+        <v>44417</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D120" s="2">
-        <v>37026</v>
+        <v>33252</v>
       </c>
       <c r="E120" s="2">
-        <v>44407</v>
+        <v>44414</v>
       </c>
       <c r="F120" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="J120" s="2">
-        <v>44411</v>
+        <v>44417</v>
       </c>
       <c r="L120" t="s">
         <v>0</v>
@@ -7801,14 +7767,14 @@
         <v>1</v>
       </c>
       <c r="AN120" s="2">
-        <v>44411</v>
+        <v>44417</v>
       </c>
       <c r="AO120" s="4"/>
       <c r="AS120" s="3"/>
       <c r="AU120" s="4"/>
       <c r="AY120" s="3"/>
       <c r="BH120" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI120" t="s">
         <v>3</v>
@@ -7816,22 +7782,31 @@
     </row>
     <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>352197895760</v>
+        <v>352195979452</v>
       </c>
       <c r="B121" s="2">
-        <v>44426</v>
+        <v>44411</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D121" s="2">
-        <v>36357</v>
+        <v>34987</v>
       </c>
       <c r="E121" s="2">
-        <v>44425</v>
+        <v>44409</v>
       </c>
       <c r="F121" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J121" s="2">
+        <v>44411</v>
+      </c>
+      <c r="K121" t="s">
+        <v>5</v>
+      </c>
+      <c r="L121" t="s">
+        <v>4</v>
       </c>
       <c r="M121" s="3"/>
       <c r="O121" s="4"/>
@@ -7840,11 +7815,26 @@
       <c r="AD121" s="4"/>
       <c r="AE121" s="3"/>
       <c r="AG121" s="4"/>
-      <c r="AL121" s="3"/>
+      <c r="AL121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN121" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AO121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS121" s="3"/>
       <c r="AU121" s="4"/>
       <c r="AY121" s="3"/>
+      <c r="BE121" t="s">
+        <v>45</v>
+      </c>
       <c r="BH121" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="BI121" t="s">
         <v>3</v>
@@ -7852,25 +7842,25 @@
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>352195714322</v>
+        <v>352196768543</v>
       </c>
       <c r="B122" s="2">
-        <v>44410</v>
+        <v>44418</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D122" s="2">
-        <v>25707</v>
+        <v>30320</v>
       </c>
       <c r="E122" s="2">
-        <v>44406</v>
+        <v>44414</v>
       </c>
       <c r="F122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J122" s="2">
-        <v>44407</v>
+        <v>44418</v>
       </c>
       <c r="L122" t="s">
         <v>0</v>
@@ -7889,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AN122" s="2">
-        <v>44407</v>
+        <v>44418</v>
       </c>
       <c r="AO122" s="4"/>
       <c r="AS122" s="3"/>
@@ -7904,25 +7894,25 @@
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>352198889095</v>
+        <v>352198459851</v>
       </c>
       <c r="B123" s="2">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D123" s="2">
-        <v>33499</v>
+        <v>29906</v>
       </c>
       <c r="E123" s="2">
-        <v>44433</v>
+        <v>44428</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J123" s="2">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="L123" t="s">
         <v>0</v>
@@ -7941,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="AN123" s="2">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="AO123" s="4"/>
       <c r="AS123" s="3"/>
@@ -7956,25 +7946,25 @@
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>352196785824</v>
+        <v>352198163087</v>
       </c>
       <c r="B124" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D124" s="2">
-        <v>42375</v>
+        <v>35064</v>
       </c>
       <c r="E124" s="2">
-        <v>44416</v>
+        <v>44429</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="J124" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="L124" t="s">
         <v>0</v>
@@ -7993,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="AN124" s="2">
-        <v>44418</v>
+        <v>44429</v>
       </c>
       <c r="AO124" s="4"/>
       <c r="AS124" s="3"/>
@@ -8008,25 +7998,25 @@
     </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>352196585642</v>
+        <v>352196142588</v>
       </c>
       <c r="B125" s="2">
-        <v>44417</v>
+        <v>44412</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D125" s="2">
-        <v>33252</v>
+        <v>35411</v>
       </c>
       <c r="E125" s="2">
-        <v>44414</v>
+        <v>44410</v>
       </c>
       <c r="F125" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J125" s="2">
-        <v>44417</v>
+        <v>44412</v>
       </c>
       <c r="L125" t="s">
         <v>0</v>
@@ -8045,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="AN125" s="2">
-        <v>44417</v>
+        <v>44412</v>
       </c>
       <c r="AO125" s="4"/>
       <c r="AS125" s="3"/>
@@ -8060,31 +8050,28 @@
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>352195979452</v>
+        <v>352198963228</v>
       </c>
       <c r="B126" s="2">
-        <v>44411</v>
+        <v>44436</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D126" s="2">
-        <v>34987</v>
+        <v>31946</v>
       </c>
       <c r="E126" s="2">
-        <v>44409</v>
+        <v>44433</v>
       </c>
       <c r="F126" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="J126" s="2">
-        <v>44411</v>
-      </c>
-      <c r="K126" t="s">
-        <v>5</v>
+        <v>44436</v>
       </c>
       <c r="L126" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M126" s="3"/>
       <c r="O126" s="4"/>
@@ -8094,25 +8081,20 @@
       <c r="AE126" s="3"/>
       <c r="AG126" s="4"/>
       <c r="AL126" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM126" t="s">
         <v>1</v>
       </c>
       <c r="AN126" s="2">
-        <v>44411</v>
-      </c>
-      <c r="AO126" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44436</v>
+      </c>
+      <c r="AO126" s="4"/>
       <c r="AS126" s="3"/>
       <c r="AU126" s="4"/>
       <c r="AY126" s="3"/>
-      <c r="BE126" t="s">
-        <v>46</v>
-      </c>
       <c r="BH126" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BI126" t="s">
         <v>3</v>
@@ -8120,7 +8102,7 @@
     </row>
     <row r="127" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>352196768543</v>
+        <v>352196833421</v>
       </c>
       <c r="B127" s="2">
         <v>44418</v>
@@ -8129,10 +8111,10 @@
         <v>228</v>
       </c>
       <c r="D127" s="2">
-        <v>30320</v>
+        <v>32110</v>
       </c>
       <c r="E127" s="2">
-        <v>44414</v>
+        <v>44416</v>
       </c>
       <c r="F127" t="s">
         <v>229</v>
@@ -8172,28 +8154,31 @@
     </row>
     <row r="128" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>352198459851</v>
+        <v>352199164964</v>
       </c>
       <c r="B128" s="2">
-        <v>44431</v>
+        <v>44439</v>
       </c>
       <c r="C128" t="s">
         <v>230</v>
       </c>
       <c r="D128" s="2">
-        <v>29906</v>
+        <v>31391</v>
       </c>
       <c r="E128" s="2">
-        <v>44428</v>
+        <v>44435</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="J128" s="2">
-        <v>44431</v>
+        <v>44439</v>
+      </c>
+      <c r="K128" t="s">
+        <v>5</v>
       </c>
       <c r="L128" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M128" s="3"/>
       <c r="O128" s="4"/>
@@ -8203,15 +8188,17 @@
       <c r="AE128" s="3"/>
       <c r="AG128" s="4"/>
       <c r="AL128" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM128" t="s">
         <v>1</v>
       </c>
       <c r="AN128" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO128" s="4"/>
+        <v>44439</v>
+      </c>
+      <c r="AO128" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS128" s="3"/>
       <c r="AU128" s="4"/>
       <c r="AY128" s="3"/>
@@ -8224,25 +8211,25 @@
     </row>
     <row r="129" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>352198163087</v>
+        <v>352196036200</v>
       </c>
       <c r="B129" s="2">
-        <v>44429</v>
+        <v>44412</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D129" s="2">
-        <v>35064</v>
+        <v>30862</v>
       </c>
       <c r="E129" s="2">
-        <v>44429</v>
+        <v>44407</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J129" s="2">
-        <v>44429</v>
+        <v>44412</v>
       </c>
       <c r="L129" t="s">
         <v>0</v>
@@ -8261,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="AN129" s="2">
-        <v>44429</v>
+        <v>44412</v>
       </c>
       <c r="AO129" s="4"/>
       <c r="AS129" s="3"/>
@@ -8276,25 +8263,25 @@
     </row>
     <row r="130" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>352196142588</v>
+        <v>352198863235</v>
       </c>
       <c r="B130" s="2">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2">
-        <v>35411</v>
+        <v>35585</v>
       </c>
       <c r="E130" s="2">
-        <v>44410</v>
+        <v>44432</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J130" s="2">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="L130" t="s">
         <v>0</v>
@@ -8313,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="AN130" s="2">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="AO130" s="4"/>
       <c r="AS130" s="3"/>
@@ -8328,25 +8315,25 @@
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>352198963228</v>
+        <v>352196877957</v>
       </c>
       <c r="B131" s="2">
-        <v>44436</v>
+        <v>44419</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D131" s="2">
-        <v>31946</v>
+        <v>29662</v>
       </c>
       <c r="E131" s="2">
-        <v>44433</v>
+        <v>44415</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="J131" s="2">
-        <v>44436</v>
+        <v>44418</v>
       </c>
       <c r="L131" t="s">
         <v>0</v>
@@ -8365,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="AN131" s="2">
-        <v>44436</v>
+        <v>44418</v>
       </c>
       <c r="AO131" s="4"/>
       <c r="AS131" s="3"/>
@@ -8380,28 +8367,22 @@
     </row>
     <row r="132" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>352196833421</v>
+        <v>352199000975</v>
       </c>
       <c r="B132" s="2">
-        <v>44418</v>
+        <v>44437</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D132" s="2">
-        <v>32110</v>
+        <v>27856</v>
       </c>
       <c r="E132" s="2">
-        <v>44416</v>
+        <v>44434</v>
       </c>
       <c r="F132" t="s">
-        <v>235</v>
-      </c>
-      <c r="J132" s="2">
-        <v>44418</v>
-      </c>
-      <c r="L132" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M132" s="3"/>
       <c r="O132" s="4"/>
@@ -8410,16 +8391,27 @@
       <c r="AD132" s="4"/>
       <c r="AE132" s="3"/>
       <c r="AG132" s="4"/>
+      <c r="AH132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI132" s="2">
+        <v>44434</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>5</v>
+      </c>
       <c r="AL132" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM132" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN132" s="2">
-        <v>44418</v>
-      </c>
-      <c r="AO132" s="4"/>
+        <v>44434</v>
+      </c>
+      <c r="AO132" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS132" s="3"/>
       <c r="AU132" s="4"/>
       <c r="AY132" s="3"/>
@@ -8432,31 +8424,28 @@
     </row>
     <row r="133" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>352199164964</v>
+        <v>352199441124</v>
       </c>
       <c r="B133" s="2">
         <v>44439</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D133" s="2">
-        <v>31391</v>
+        <v>32224</v>
       </c>
       <c r="E133" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="F133" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="J133" s="2">
         <v>44439</v>
       </c>
-      <c r="K133" t="s">
-        <v>5</v>
-      </c>
       <c r="L133" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M133" s="3"/>
       <c r="O133" s="4"/>
@@ -8466,7 +8455,7 @@
       <c r="AE133" s="3"/>
       <c r="AG133" s="4"/>
       <c r="AL133" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM133" t="s">
         <v>1</v>
@@ -8474,9 +8463,7 @@
       <c r="AN133" s="2">
         <v>44439</v>
       </c>
-      <c r="AO133" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="AO133" s="4"/>
       <c r="AS133" s="3"/>
       <c r="AU133" s="4"/>
       <c r="AY133" s="3"/>
@@ -8489,25 +8476,25 @@
     </row>
     <row r="134" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>352196036200</v>
+        <v>352196692168</v>
       </c>
       <c r="B134" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="C134" t="s">
         <v>238</v>
       </c>
       <c r="D134" s="2">
-        <v>30862</v>
+        <v>38794</v>
       </c>
       <c r="E134" s="2">
-        <v>44407</v>
+        <v>44416</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J134" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="L134" t="s">
         <v>0</v>
@@ -8526,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="AN134" s="2">
-        <v>44412</v>
+        <v>44418</v>
       </c>
       <c r="AO134" s="4"/>
       <c r="AS134" s="3"/>
@@ -8541,25 +8528,25 @@
     </row>
     <row r="135" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>352198863235</v>
+        <v>352198202137</v>
       </c>
       <c r="B135" s="2">
-        <v>44435</v>
+        <v>44430</v>
       </c>
       <c r="C135" t="s">
         <v>239</v>
       </c>
       <c r="D135" s="2">
-        <v>35585</v>
+        <v>36738</v>
       </c>
       <c r="E135" s="2">
-        <v>44432</v>
+        <v>44414</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J135" s="2">
-        <v>44435</v>
+        <v>44430</v>
       </c>
       <c r="L135" t="s">
         <v>0</v>
@@ -8578,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="AN135" s="2">
-        <v>44435</v>
+        <v>44430</v>
       </c>
       <c r="AO135" s="4"/>
       <c r="AS135" s="3"/>
@@ -8593,25 +8580,25 @@
     </row>
     <row r="136" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>352196877957</v>
+        <v>352198615918</v>
       </c>
       <c r="B136" s="2">
-        <v>44419</v>
+        <v>44433</v>
       </c>
       <c r="C136" t="s">
         <v>240</v>
       </c>
       <c r="D136" s="2">
-        <v>29662</v>
+        <v>36281</v>
       </c>
       <c r="E136" s="2">
-        <v>44415</v>
+        <v>44423</v>
       </c>
       <c r="F136" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="J136" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="L136" t="s">
         <v>0</v>
@@ -8630,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AN136" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="AO136" s="4"/>
       <c r="AS136" s="3"/>
@@ -8645,22 +8632,28 @@
     </row>
     <row r="137" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>352199000975</v>
+        <v>352196648105</v>
       </c>
       <c r="B137" s="2">
-        <v>44437</v>
+        <v>44417</v>
       </c>
       <c r="C137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D137" s="2">
-        <v>27856</v>
+        <v>25791</v>
       </c>
       <c r="E137" s="2">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="J137" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L137" t="s">
+        <v>0</v>
       </c>
       <c r="M137" s="3"/>
       <c r="O137" s="4"/>
@@ -8669,27 +8662,16 @@
       <c r="AD137" s="4"/>
       <c r="AE137" s="3"/>
       <c r="AG137" s="4"/>
-      <c r="AH137" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI137" s="2">
-        <v>44434</v>
-      </c>
-      <c r="AJ137" t="s">
-        <v>5</v>
-      </c>
       <c r="AL137" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM137" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN137" s="2">
-        <v>44434</v>
-      </c>
-      <c r="AO137" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>44417</v>
+      </c>
+      <c r="AO137" s="4"/>
       <c r="AS137" s="3"/>
       <c r="AU137" s="4"/>
       <c r="AY137" s="3"/>
@@ -8702,25 +8684,25 @@
     </row>
     <row r="138" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>352199441124</v>
+        <v>352198761099</v>
       </c>
       <c r="B138" s="2">
-        <v>44439</v>
+        <v>44434</v>
       </c>
       <c r="C138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D138" s="2">
-        <v>32224</v>
+        <v>35997</v>
       </c>
       <c r="E138" s="2">
-        <v>44437</v>
+        <v>44431</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J138" s="2">
-        <v>44439</v>
+        <v>44434</v>
       </c>
       <c r="L138" t="s">
         <v>0</v>
@@ -8739,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="AN138" s="2">
-        <v>44439</v>
+        <v>44434</v>
       </c>
       <c r="AO138" s="4"/>
       <c r="AS138" s="3"/>
@@ -8754,25 +8736,25 @@
     </row>
     <row r="139" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>352196692168</v>
+        <v>352198347981</v>
       </c>
       <c r="B139" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D139" s="2">
-        <v>38794</v>
+        <v>34838</v>
       </c>
       <c r="E139" s="2">
-        <v>44416</v>
+        <v>44428</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J139" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="L139" t="s">
         <v>0</v>
@@ -8791,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="AN139" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="AO139" s="4"/>
       <c r="AS139" s="3"/>
@@ -8806,25 +8788,34 @@
     </row>
     <row r="140" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>352198202137</v>
+        <v>352185285644</v>
       </c>
       <c r="B140" s="2">
-        <v>44430</v>
+        <v>44420</v>
       </c>
       <c r="C140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D140" s="2">
-        <v>36738</v>
+        <v>22443</v>
       </c>
       <c r="E140" s="2">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="G140">
+        <v>2102262213</v>
+      </c>
+      <c r="H140" s="2">
+        <v>44392</v>
+      </c>
+      <c r="I140" t="s">
+        <v>48</v>
       </c>
       <c r="J140" s="2">
-        <v>44430</v>
+        <v>44420</v>
       </c>
       <c r="L140" t="s">
         <v>0</v>
@@ -8843,14 +8834,17 @@
         <v>1</v>
       </c>
       <c r="AN140" s="2">
-        <v>44430</v>
+        <v>44420</v>
       </c>
       <c r="AO140" s="4"/>
       <c r="AS140" s="3"/>
       <c r="AU140" s="4"/>
       <c r="AY140" s="3"/>
+      <c r="BG140" t="s">
+        <v>244</v>
+      </c>
       <c r="BH140" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="BI140" t="s">
         <v>3</v>
@@ -8858,25 +8852,25 @@
     </row>
     <row r="141" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>352198615918</v>
+        <v>352197601049</v>
       </c>
       <c r="B141" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="C141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D141" s="2">
-        <v>36281</v>
+        <v>25875</v>
       </c>
       <c r="E141" s="2">
-        <v>44423</v>
+        <v>44392</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J141" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="L141" t="s">
         <v>0</v>
@@ -8895,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="AN141" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="AO141" s="4"/>
       <c r="AS141" s="3"/>
@@ -8910,25 +8904,25 @@
     </row>
     <row r="142" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>352196648105</v>
+        <v>352197949950</v>
       </c>
       <c r="B142" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="C142" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="2">
+        <v>30871</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44425</v>
+      </c>
+      <c r="F142" t="s">
         <v>247</v>
       </c>
-      <c r="D142" s="2">
-        <v>25791</v>
-      </c>
-      <c r="E142" s="2">
-        <v>44413</v>
-      </c>
-      <c r="F142" t="s">
-        <v>36</v>
-      </c>
       <c r="J142" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="L142" t="s">
         <v>0</v>
@@ -8947,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="AN142" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="AO142" s="4"/>
       <c r="AS142" s="3"/>
@@ -8962,25 +8956,25 @@
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>352198761099</v>
+        <v>352196948887</v>
       </c>
       <c r="B143" s="2">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="C143" t="s">
         <v>248</v>
       </c>
       <c r="D143" s="2">
-        <v>35997</v>
+        <v>19157</v>
       </c>
       <c r="E143" s="2">
-        <v>44431</v>
+        <v>44414</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J143" s="2">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="L143" t="s">
         <v>0</v>
@@ -8999,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="AN143" s="2">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="AO143" s="4"/>
       <c r="AS143" s="3"/>
@@ -9014,25 +9008,25 @@
     </row>
     <row r="144" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>352198347981</v>
+        <v>352197804663</v>
       </c>
       <c r="B144" s="2">
-        <v>44431</v>
+        <v>44426</v>
       </c>
       <c r="C144" t="s">
         <v>249</v>
       </c>
       <c r="D144" s="2">
-        <v>34838</v>
+        <v>25042</v>
       </c>
       <c r="E144" s="2">
-        <v>44428</v>
+        <v>44425</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="J144" s="2">
-        <v>44431</v>
+        <v>44426</v>
       </c>
       <c r="L144" t="s">
         <v>0</v>
@@ -9051,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="AN144" s="2">
-        <v>44431</v>
+        <v>44426</v>
       </c>
       <c r="AO144" s="4"/>
       <c r="AS144" s="3"/>
@@ -9066,37 +9060,22 @@
     </row>
     <row r="145" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>352185285644</v>
+        <v>352198690861</v>
       </c>
       <c r="B145" s="2">
-        <v>44420</v>
+        <v>44434</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D145" s="2">
-        <v>22443</v>
+        <v>41866</v>
       </c>
       <c r="E145" s="2">
-        <v>44420</v>
+        <v>44431</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145">
-        <v>2102262213</v>
-      </c>
-      <c r="H145" s="2">
-        <v>44392</v>
-      </c>
-      <c r="I145" t="s">
-        <v>49</v>
-      </c>
-      <c r="J145" s="2">
-        <v>44420</v>
-      </c>
-      <c r="L145" t="s">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="M145" s="3"/>
       <c r="O145" s="4"/>
@@ -9105,24 +9084,11 @@
       <c r="AD145" s="4"/>
       <c r="AE145" s="3"/>
       <c r="AG145" s="4"/>
-      <c r="AL145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM145" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN145" s="2">
-        <v>44420</v>
-      </c>
-      <c r="AO145" s="4"/>
-      <c r="AS145" s="3"/>
+      <c r="AL145" s="3"/>
       <c r="AU145" s="4"/>
       <c r="AY145" s="3"/>
-      <c r="BG145" t="s">
-        <v>250</v>
-      </c>
       <c r="BH145" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="BI145" t="s">
         <v>3</v>
@@ -9130,25 +9096,25 @@
     </row>
     <row r="146" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>352197601049</v>
+        <v>352196618455</v>
       </c>
       <c r="B146" s="2">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="C146" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D146" s="2">
-        <v>25875</v>
+        <v>43846</v>
       </c>
       <c r="E146" s="2">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J146" s="2">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="L146" t="s">
         <v>0</v>
@@ -9167,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="AN146" s="2">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="AO146" s="4"/>
       <c r="AS146" s="3"/>
@@ -9182,25 +9148,25 @@
     </row>
     <row r="147" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>352197949950</v>
+        <v>352197032355</v>
       </c>
       <c r="B147" s="2">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D147" s="2">
-        <v>30871</v>
+        <v>42256</v>
       </c>
       <c r="E147" s="2">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="F147" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="J147" s="2">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="L147" t="s">
         <v>0</v>
@@ -9219,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="AN147" s="2">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="AO147" s="4"/>
       <c r="AS147" s="3"/>
@@ -9234,25 +9200,25 @@
     </row>
     <row r="148" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>352196948887</v>
+        <v>352198824727</v>
       </c>
       <c r="B148" s="2">
-        <v>44419</v>
+        <v>44435</v>
       </c>
       <c r="C148" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D148" s="2">
-        <v>19157</v>
+        <v>23494</v>
       </c>
       <c r="E148" s="2">
-        <v>44414</v>
+        <v>44431</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J148" s="2">
-        <v>44419</v>
+        <v>44435</v>
       </c>
       <c r="L148" t="s">
         <v>0</v>
@@ -9271,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="AN148" s="2">
-        <v>44419</v>
+        <v>44435</v>
       </c>
       <c r="AO148" s="4"/>
       <c r="AS148" s="3"/>
@@ -9286,25 +9252,25 @@
     </row>
     <row r="149" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>352197804663</v>
+        <v>352195884017</v>
       </c>
       <c r="B149" s="2">
-        <v>44426</v>
+        <v>44411</v>
       </c>
       <c r="C149" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D149" s="2">
-        <v>25042</v>
+        <v>22704</v>
       </c>
       <c r="E149" s="2">
-        <v>44425</v>
+        <v>44407</v>
       </c>
       <c r="F149" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="J149" s="2">
-        <v>44426</v>
+        <v>44411</v>
       </c>
       <c r="L149" t="s">
         <v>0</v>
@@ -9323,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="AN149" s="2">
-        <v>44426</v>
+        <v>44411</v>
       </c>
       <c r="AO149" s="4"/>
       <c r="AS149" s="3"/>
@@ -9338,22 +9304,28 @@
     </row>
     <row r="150" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>352198690861</v>
+        <v>352197160974</v>
       </c>
       <c r="B150" s="2">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="C150" t="s">
         <v>257</v>
       </c>
       <c r="D150" s="2">
-        <v>41866</v>
+        <v>29659</v>
       </c>
       <c r="E150" s="2">
-        <v>44431</v>
+        <v>44417</v>
       </c>
       <c r="F150" t="s">
-        <v>258</v>
+        <v>76</v>
+      </c>
+      <c r="J150" s="2">
+        <v>44420</v>
+      </c>
+      <c r="L150" t="s">
+        <v>0</v>
       </c>
       <c r="M150" s="3"/>
       <c r="O150" s="4"/>
@@ -9362,7 +9334,17 @@
       <c r="AD150" s="4"/>
       <c r="AE150" s="3"/>
       <c r="AG150" s="4"/>
-      <c r="AL150" s="3"/>
+      <c r="AL150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN150" s="2">
+        <v>44420</v>
+      </c>
+      <c r="AO150" s="4"/>
+      <c r="AS150" s="3"/>
       <c r="AU150" s="4"/>
       <c r="AY150" s="3"/>
       <c r="BH150" t="s">
@@ -9374,25 +9356,25 @@
     </row>
     <row r="151" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>352196618455</v>
+        <v>352196302957</v>
       </c>
       <c r="B151" s="2">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="C151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D151" s="2">
-        <v>43846</v>
+        <v>30890</v>
       </c>
       <c r="E151" s="2">
+        <v>44409</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="2">
         <v>44414</v>
-      </c>
-      <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="J151" s="2">
-        <v>44417</v>
       </c>
       <c r="L151" t="s">
         <v>0</v>
@@ -9411,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="AN151" s="2">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="AO151" s="4"/>
       <c r="AS151" s="3"/>
@@ -9426,25 +9408,25 @@
     </row>
     <row r="152" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>352197032355</v>
+        <v>352196785268</v>
       </c>
       <c r="B152" s="2">
-        <v>44420</v>
+        <v>44418</v>
       </c>
       <c r="C152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D152" s="2">
-        <v>42256</v>
+        <v>35109</v>
       </c>
       <c r="E152" s="2">
+        <v>44410</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+      <c r="J152" s="2">
         <v>44418</v>
-      </c>
-      <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="J152" s="2">
-        <v>44420</v>
       </c>
       <c r="L152" t="s">
         <v>0</v>
@@ -9463,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="AN152" s="2">
-        <v>44420</v>
+        <v>44418</v>
       </c>
       <c r="AO152" s="4"/>
       <c r="AS152" s="3"/>
@@ -9478,28 +9460,31 @@
     </row>
     <row r="153" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>352198824727</v>
+        <v>352197456874</v>
       </c>
       <c r="B153" s="2">
-        <v>44435</v>
+        <v>44424</v>
       </c>
       <c r="C153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D153" s="2">
-        <v>23494</v>
+        <v>42642</v>
       </c>
       <c r="E153" s="2">
-        <v>44431</v>
+        <v>44422</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J153" s="2">
-        <v>44435</v>
+        <v>44424</v>
+      </c>
+      <c r="K153" t="s">
+        <v>5</v>
       </c>
       <c r="L153" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M153" s="3"/>
       <c r="O153" s="4"/>
@@ -9509,18 +9494,29 @@
       <c r="AE153" s="3"/>
       <c r="AG153" s="4"/>
       <c r="AL153" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM153" t="s">
         <v>1</v>
       </c>
       <c r="AN153" s="2">
-        <v>44435</v>
-      </c>
-      <c r="AO153" s="4"/>
+        <v>44424</v>
+      </c>
+      <c r="AO153" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="AS153" s="3"/>
       <c r="AU153" s="4"/>
       <c r="AY153" s="3"/>
+      <c r="BD153" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE153" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF153" s="2">
+        <v>44442</v>
+      </c>
       <c r="BH153" t="s">
         <v>2</v>
       </c>
@@ -9530,25 +9526,25 @@
     </row>
     <row r="154" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>352195884017</v>
+        <v>352196184893</v>
       </c>
       <c r="B154" s="2">
-        <v>44411</v>
+        <v>44413</v>
       </c>
       <c r="C154" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D154" s="2">
-        <v>22704</v>
+        <v>31847</v>
       </c>
       <c r="E154" s="2">
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J154" s="2">
-        <v>44411</v>
+        <v>44413</v>
       </c>
       <c r="L154" t="s">
         <v>0</v>
@@ -9567,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="AN154" s="2">
-        <v>44411</v>
+        <v>44413</v>
       </c>
       <c r="AO154" s="4"/>
       <c r="AS154" s="3"/>
@@ -9582,22 +9578,22 @@
     </row>
     <row r="155" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>352197160974</v>
+        <v>352197026471</v>
       </c>
       <c r="B155" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="C155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D155" s="2">
-        <v>29659</v>
+        <v>33851</v>
       </c>
       <c r="E155" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="F155" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="J155" s="2">
         <v>44420</v>
@@ -9634,25 +9630,25 @@
     </row>
     <row r="156" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>352196302957</v>
+        <v>352197473322</v>
       </c>
       <c r="B156" s="2">
-        <v>44414</v>
+        <v>44424</v>
       </c>
       <c r="C156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D156" s="2">
-        <v>30890</v>
+        <v>33581</v>
       </c>
       <c r="E156" s="2">
-        <v>44409</v>
+        <v>44420</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J156" s="2">
-        <v>44414</v>
+        <v>44424</v>
       </c>
       <c r="L156" t="s">
         <v>0</v>
@@ -9671,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="AN156" s="2">
-        <v>44414</v>
+        <v>44424</v>
       </c>
       <c r="AO156" s="4"/>
       <c r="AS156" s="3"/>
@@ -9686,28 +9682,22 @@
     </row>
     <row r="157" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>352196785268</v>
+        <v>352196393148</v>
       </c>
       <c r="B157" s="2">
-        <v>44418</v>
+        <v>44414</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D157" s="2">
-        <v>35109</v>
+        <v>34609</v>
       </c>
       <c r="E157" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="F157" t="s">
-        <v>7</v>
-      </c>
-      <c r="J157" s="2">
-        <v>44418</v>
-      </c>
-      <c r="L157" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M157" s="3"/>
       <c r="O157" s="4"/>
@@ -9716,281 +9706,13 @@
       <c r="AD157" s="4"/>
       <c r="AE157" s="3"/>
       <c r="AG157" s="4"/>
-      <c r="AL157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM157" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN157" s="2">
-        <v>44418</v>
-      </c>
-      <c r="AO157" s="4"/>
-      <c r="AS157" s="3"/>
+      <c r="AL157" s="3"/>
       <c r="AU157" s="4"/>
       <c r="AY157" s="3"/>
       <c r="BH157" t="s">
         <v>2</v>
       </c>
       <c r="BI157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>352197456874</v>
-      </c>
-      <c r="B158" s="2">
-        <v>44424</v>
-      </c>
-      <c r="C158" t="s">
-        <v>266</v>
-      </c>
-      <c r="D158" s="2">
-        <v>42642</v>
-      </c>
-      <c r="E158" s="2">
-        <v>44422</v>
-      </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="J158" s="2">
-        <v>44424</v>
-      </c>
-      <c r="K158" t="s">
-        <v>5</v>
-      </c>
-      <c r="L158" t="s">
-        <v>4</v>
-      </c>
-      <c r="M158" s="3"/>
-      <c r="O158" s="4"/>
-      <c r="V158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AD158" s="4"/>
-      <c r="AE158" s="3"/>
-      <c r="AG158" s="4"/>
-      <c r="AL158" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM158" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN158" s="2">
-        <v>44424</v>
-      </c>
-      <c r="AO158" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS158" s="3"/>
-      <c r="AU158" s="4"/>
-      <c r="AY158" s="3"/>
-      <c r="BD158" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE158" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF158" s="2">
-        <v>44442</v>
-      </c>
-      <c r="BH158" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>352196184893</v>
-      </c>
-      <c r="B159" s="2">
-        <v>44413</v>
-      </c>
-      <c r="C159" t="s">
-        <v>267</v>
-      </c>
-      <c r="D159" s="2">
-        <v>31847</v>
-      </c>
-      <c r="E159" s="2">
-        <v>44409</v>
-      </c>
-      <c r="F159" t="s">
-        <v>44</v>
-      </c>
-      <c r="J159" s="2">
-        <v>44413</v>
-      </c>
-      <c r="L159" t="s">
-        <v>0</v>
-      </c>
-      <c r="M159" s="3"/>
-      <c r="O159" s="4"/>
-      <c r="V159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AD159" s="4"/>
-      <c r="AE159" s="3"/>
-      <c r="AG159" s="4"/>
-      <c r="AL159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM159" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN159" s="2">
-        <v>44413</v>
-      </c>
-      <c r="AO159" s="4"/>
-      <c r="AS159" s="3"/>
-      <c r="AU159" s="4"/>
-      <c r="AY159" s="3"/>
-      <c r="BH159" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>352197026471</v>
-      </c>
-      <c r="B160" s="2">
-        <v>44420</v>
-      </c>
-      <c r="C160" t="s">
-        <v>268</v>
-      </c>
-      <c r="D160" s="2">
-        <v>33851</v>
-      </c>
-      <c r="E160" s="2">
-        <v>44418</v>
-      </c>
-      <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="J160" s="2">
-        <v>44420</v>
-      </c>
-      <c r="L160" t="s">
-        <v>0</v>
-      </c>
-      <c r="M160" s="3"/>
-      <c r="O160" s="4"/>
-      <c r="V160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AD160" s="4"/>
-      <c r="AE160" s="3"/>
-      <c r="AG160" s="4"/>
-      <c r="AL160" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM160" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN160" s="2">
-        <v>44420</v>
-      </c>
-      <c r="AO160" s="4"/>
-      <c r="AS160" s="3"/>
-      <c r="AU160" s="4"/>
-      <c r="AY160" s="3"/>
-      <c r="BH160" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>352197473322</v>
-      </c>
-      <c r="B161" s="2">
-        <v>44424</v>
-      </c>
-      <c r="C161" t="s">
-        <v>269</v>
-      </c>
-      <c r="D161" s="2">
-        <v>33581</v>
-      </c>
-      <c r="E161" s="2">
-        <v>44420</v>
-      </c>
-      <c r="F161" t="s">
-        <v>23</v>
-      </c>
-      <c r="J161" s="2">
-        <v>44424</v>
-      </c>
-      <c r="L161" t="s">
-        <v>0</v>
-      </c>
-      <c r="M161" s="3"/>
-      <c r="O161" s="4"/>
-      <c r="V161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AD161" s="4"/>
-      <c r="AE161" s="3"/>
-      <c r="AG161" s="4"/>
-      <c r="AL161" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM161" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN161" s="2">
-        <v>44424</v>
-      </c>
-      <c r="AO161" s="4"/>
-      <c r="AS161" s="3"/>
-      <c r="AU161" s="4"/>
-      <c r="AY161" s="3"/>
-      <c r="BH161" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>352196393148</v>
-      </c>
-      <c r="B162" s="2">
-        <v>44414</v>
-      </c>
-      <c r="C162" t="s">
-        <v>270</v>
-      </c>
-      <c r="D162" s="2">
-        <v>34609</v>
-      </c>
-      <c r="E162" s="2">
-        <v>44411</v>
-      </c>
-      <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="M162" s="3"/>
-      <c r="O162" s="4"/>
-      <c r="V162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AD162" s="4"/>
-      <c r="AE162" s="3"/>
-      <c r="AG162" s="4"/>
-      <c r="AL162" s="3"/>
-      <c r="AU162" s="4"/>
-      <c r="AY162" s="3"/>
-      <c r="BH162" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI162" t="s">
         <v>3</v>
       </c>
     </row>
